--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -451,20 +451,14 @@
         <v>21.93333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>22</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>21.86666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>21.86666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>22</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>21.99999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>22</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>21.96666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>21.93333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>21.96666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>22.06666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>22.06666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>22.23333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>22.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>22</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>22.33333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>22</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>22.06666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>22.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>22.33333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>22.3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>22.13333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>22</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>22</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>22.03333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>22</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>22</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>22</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>22</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>21.96666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>22</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>22</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>22.03333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>22.09999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>22.16666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>22.23333333333332</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>22.33333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>22.33333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2057,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2096,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2135,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2174,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2213,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2252,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2291,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2330,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2369,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2408,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2486,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2642,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2720,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2759,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2798,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2837,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2954,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2993,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3071,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3110,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3149,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3188,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3227,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3266,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3383,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3422,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3500,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3539,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3578,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3656,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3695,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3851,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3890,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3929,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4007,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4085,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4163,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4202,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4319,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4436,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4546,16 +4056,18 @@
         <v>22.9</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4585,12 +4097,14 @@
         <v>23.09999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4624,12 +4138,14 @@
         <v>23.23333333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4663,12 +4179,14 @@
         <v>23.23333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4702,12 +4220,14 @@
         <v>23.16666666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4741,12 +4261,14 @@
         <v>23.19999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4780,12 +4302,14 @@
         <v>23.39999999999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4819,12 +4343,14 @@
         <v>23.56666666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>23.8</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4858,12 +4384,14 @@
         <v>23.8</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>23.6</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4897,12 +4425,14 @@
         <v>24</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>24</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4936,12 +4466,14 @@
         <v>24.43333333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -6652,12 +6184,14 @@
         <v>23.49999999999999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6769,12 +6303,14 @@
         <v>23.26666666666665</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6808,12 +6344,14 @@
         <v>23.46666666666665</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>23.7</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6847,12 +6385,14 @@
         <v>23.53333333333332</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6886,12 +6426,14 @@
         <v>23.46666666666665</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>23.4</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6925,12 +6467,14 @@
         <v>23.49999999999998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6964,12 +6508,14 @@
         <v>23.46666666666665</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>23.6</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -7003,12 +6549,14 @@
         <v>23.43333333333332</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -7042,12 +6590,14 @@
         <v>23.49999999999998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>23.4</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -7081,12 +6631,14 @@
         <v>23.86666666666665</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>23.8</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -7120,12 +6672,14 @@
         <v>24.19999999999998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>

--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>21.9</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="F2" t="n">
-        <v>255568.7611</v>
+        <v>46373.7492</v>
       </c>
       <c r="G2" t="n">
-        <v>21.93333333333333</v>
+        <v>20.88833333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C3" t="n">
         <v>22</v>
       </c>
-      <c r="C3" t="n">
-        <v>21.6</v>
-      </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="E3" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="F3" t="n">
-        <v>180229.1551</v>
+        <v>255568.7611</v>
       </c>
       <c r="G3" t="n">
-        <v>21.83333333333333</v>
+        <v>20.90333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D4" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
-        <v>22.1</v>
-      </c>
       <c r="E4" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="F4" t="n">
-        <v>6374.6925</v>
+        <v>180229.1551</v>
       </c>
       <c r="G4" t="n">
-        <v>21.86666666666666</v>
+        <v>20.90999999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="C5" t="n">
         <v>22</v>
@@ -547,13 +547,13 @@
         <v>22.1</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="F5" t="n">
-        <v>265797.9908</v>
+        <v>6374.6925</v>
       </c>
       <c r="G5" t="n">
-        <v>21.86666666666666</v>
+        <v>20.92666666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="F6" t="n">
-        <v>190</v>
+        <v>265797.9908</v>
       </c>
       <c r="G6" t="n">
-        <v>21.99999999999999</v>
+        <v>20.94333333333331</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>6000</v>
+        <v>190</v>
       </c>
       <c r="G7" t="n">
-        <v>21.96666666666666</v>
+        <v>20.95999999999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>21.9</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="E8" t="n">
         <v>21.9</v>
       </c>
       <c r="F8" t="n">
-        <v>860.6009</v>
+        <v>6000</v>
       </c>
       <c r="G8" t="n">
-        <v>21.93333333333333</v>
+        <v>20.97666666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>21.9</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D9" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="F9" t="n">
-        <v>479121.9287</v>
+        <v>860.6009</v>
       </c>
       <c r="G9" t="n">
-        <v>21.96666666666666</v>
+        <v>20.9933333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="C10" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="E10" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="F10" t="n">
-        <v>16984.6396</v>
+        <v>479121.9287</v>
       </c>
       <c r="G10" t="n">
-        <v>22.06666666666666</v>
+        <v>21.0133333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C11" t="n">
         <v>22.2</v>
       </c>
-      <c r="C11" t="n">
-        <v>21.9</v>
-      </c>
       <c r="D11" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="F11" t="n">
-        <v>281660.0196</v>
+        <v>16984.6396</v>
       </c>
       <c r="G11" t="n">
-        <v>22.06666666666666</v>
+        <v>21.03499999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D12" t="n">
         <v>22.5</v>
       </c>
-      <c r="C12" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>22.6</v>
-      </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="F12" t="n">
-        <v>70743.91099999999</v>
+        <v>281660.0196</v>
       </c>
       <c r="G12" t="n">
-        <v>22.23333333333333</v>
+        <v>21.05166666666663</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E13" t="n">
         <v>22</v>
       </c>
-      <c r="C13" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>21.9</v>
-      </c>
       <c r="F13" t="n">
-        <v>10697.8839</v>
+        <v>70743.91099999999</v>
       </c>
       <c r="G13" t="n">
-        <v>22.3</v>
+        <v>21.0783333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="D14" t="n">
         <v>22.4</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="F14" t="n">
-        <v>54516.1854</v>
+        <v>10697.8839</v>
       </c>
       <c r="G14" t="n">
-        <v>22.33333333333333</v>
+        <v>21.10166666666663</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="E15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>50496.6756</v>
+        <v>54516.1854</v>
       </c>
       <c r="G15" t="n">
-        <v>22.16666666666667</v>
+        <v>21.1183333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="C16" t="n">
         <v>22.1</v>
       </c>
       <c r="D16" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="F16" t="n">
-        <v>16615.7443</v>
+        <v>50496.6756</v>
       </c>
       <c r="G16" t="n">
-        <v>22.06666666666666</v>
+        <v>21.13666666666663</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="D17" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="E17" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>16615.7443</v>
       </c>
       <c r="G17" t="n">
-        <v>22.2</v>
+        <v>21.15499999999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="C18" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D18" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="F18" t="n">
-        <v>197937.1963</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>22.33333333333333</v>
+        <v>21.17666666666663</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="D19" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>13744</v>
+        <v>197937.1963</v>
       </c>
       <c r="G19" t="n">
-        <v>22.3</v>
+        <v>21.19999999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C20" t="n">
         <v>22</v>
       </c>
-      <c r="C20" t="n">
-        <v>21.9</v>
-      </c>
       <c r="D20" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E20" t="n">
         <v>22</v>
       </c>
-      <c r="E20" t="n">
-        <v>21.9</v>
-      </c>
       <c r="F20" t="n">
-        <v>11942</v>
+        <v>13744</v>
       </c>
       <c r="G20" t="n">
-        <v>22.13333333333334</v>
+        <v>21.22499999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
         <v>21.9</v>
       </c>
-      <c r="C21" t="n">
-        <v>22.1</v>
-      </c>
       <c r="D21" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
         <v>21.9</v>
       </c>
       <c r="F21" t="n">
-        <v>27384.7027</v>
+        <v>11942</v>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>21.24666666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="D22" t="n">
         <v>22.1</v>
@@ -1145,10 +1145,10 @@
         <v>21.9</v>
       </c>
       <c r="F22" t="n">
-        <v>11678.0556</v>
+        <v>27384.7027</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>21.27333333333331</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3420.6362</v>
+        <v>11678.0556</v>
       </c>
       <c r="G23" t="n">
-        <v>22.03333333333333</v>
+        <v>21.29166666666664</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>10892.718</v>
+        <v>3420.6362</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>21.31666666666664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>1319.4233</v>
+        <v>10892.718</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>21.33999999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>6000</v>
+        <v>1319.4233</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>21.36499999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>43623.4711</v>
+        <v>6000</v>
       </c>
       <c r="G27" t="n">
-        <v>21.96666666666667</v>
+        <v>21.3833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="C28" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D28" t="n">
         <v>22.2</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="F28" t="n">
-        <v>74158.0438</v>
+        <v>43623.4711</v>
       </c>
       <c r="G28" t="n">
-        <v>22</v>
+        <v>21.40166666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
         <v>22.1</v>
       </c>
       <c r="D29" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="E29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>16677.1339</v>
+        <v>74158.0438</v>
       </c>
       <c r="G29" t="n">
-        <v>22.03333333333333</v>
+        <v>21.42999999999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>22.1</v>
       </c>
       <c r="D30" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E30" t="n">
         <v>22.1</v>
       </c>
       <c r="F30" t="n">
-        <v>79259.8328</v>
+        <v>16677.1339</v>
       </c>
       <c r="G30" t="n">
-        <v>22.09999999999999</v>
+        <v>21.4583333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="C31" t="n">
         <v>22.1</v>
       </c>
       <c r="D31" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="E31" t="n">
         <v>22.1</v>
       </c>
       <c r="F31" t="n">
-        <v>25597</v>
+        <v>79259.8328</v>
       </c>
       <c r="G31" t="n">
-        <v>22.09999999999999</v>
+        <v>21.4883333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="C32" t="n">
         <v>22.1</v>
       </c>
       <c r="D32" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="E32" t="n">
         <v>22.1</v>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>25597</v>
       </c>
       <c r="G32" t="n">
-        <v>22.09999999999999</v>
+        <v>21.51999999999996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>22.1</v>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="n">
-        <v>22.09999999999999</v>
+        <v>21.5533333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,19 +1565,23 @@
         <v>22.1</v>
       </c>
       <c r="F34" t="n">
-        <v>211347.9949</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="n">
-        <v>22.09999999999999</v>
+        <v>21.57499999999996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1600,20 +1604,28 @@
         <v>22.1</v>
       </c>
       <c r="F35" t="n">
-        <v>29987.2231</v>
+        <v>211347.9949</v>
       </c>
       <c r="G35" t="n">
-        <v>22.09999999999999</v>
+        <v>21.59166666666663</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,20 +1647,28 @@
         <v>22.1</v>
       </c>
       <c r="F36" t="n">
-        <v>32842.3095</v>
+        <v>29987.2231</v>
       </c>
       <c r="G36" t="n">
-        <v>22.09999999999999</v>
+        <v>21.61833333333329</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,28 +1681,32 @@
         <v>22.1</v>
       </c>
       <c r="C37" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="D37" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="E37" t="n">
         <v>22.1</v>
       </c>
       <c r="F37" t="n">
-        <v>36745.3468</v>
+        <v>32842.3095</v>
       </c>
       <c r="G37" t="n">
-        <v>22.16666666666666</v>
+        <v>21.64833333333329</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
@@ -1693,7 +1717,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="C38" t="n">
         <v>22.3</v>
@@ -1702,23 +1726,31 @@
         <v>22.3</v>
       </c>
       <c r="E38" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="F38" t="n">
-        <v>7793.3542</v>
+        <v>36745.3468</v>
       </c>
       <c r="G38" t="n">
-        <v>22.23333333333332</v>
+        <v>21.67499999999996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1763,19 @@
         <v>22.3</v>
       </c>
       <c r="C39" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="D39" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="E39" t="n">
         <v>22.3</v>
       </c>
       <c r="F39" t="n">
-        <v>27912.2316</v>
+        <v>7793.3542</v>
       </c>
       <c r="G39" t="n">
-        <v>22.33333333333333</v>
+        <v>21.70666666666662</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1804,19 @@
         <v>22.3</v>
       </c>
       <c r="C40" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="D40" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="E40" t="n">
         <v>22.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1068.9159</v>
+        <v>27912.2316</v>
       </c>
       <c r="G40" t="n">
-        <v>22.33333333333333</v>
+        <v>21.73833333333329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1825,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="C41" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="D41" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="E41" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="F41" t="n">
-        <v>30518.5135</v>
+        <v>1068.9159</v>
       </c>
       <c r="G41" t="n">
-        <v>22.26666666666666</v>
+        <v>21.77333333333329</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1866,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1883,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="C42" t="n">
         <v>22.1</v>
       </c>
       <c r="D42" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="E42" t="n">
         <v>22.1</v>
       </c>
       <c r="F42" t="n">
-        <v>947.1876999999999</v>
+        <v>30518.5135</v>
       </c>
       <c r="G42" t="n">
-        <v>22.16666666666666</v>
+        <v>21.80333333333329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1924,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="D43" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="E43" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="F43" t="n">
-        <v>10846.4766</v>
+        <v>947.1876999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>22.06666666666666</v>
+        <v>21.82833333333329</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +1948,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1965,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="F44" t="n">
-        <v>80182.038</v>
+        <v>10846.4766</v>
       </c>
       <c r="G44" t="n">
-        <v>22.06666666666666</v>
+        <v>21.84833333333329</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +1989,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1944,26 +2012,34 @@
         <v>22.1</v>
       </c>
       <c r="D45" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="E45" t="n">
         <v>22.1</v>
       </c>
       <c r="F45" t="n">
-        <v>26000</v>
+        <v>80182.038</v>
       </c>
       <c r="G45" t="n">
-        <v>22.06666666666666</v>
+        <v>21.86999999999995</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>22</v>
+      </c>
+      <c r="K45" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1976,29 +2052,37 @@
         <v>22.1</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="D46" t="n">
         <v>22.1</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="F46" t="n">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="G46" t="n">
-        <v>22.06666666666666</v>
+        <v>21.89166666666662</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,32 +2092,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="C47" t="n">
         <v>22</v>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="E47" t="n">
         <v>22</v>
       </c>
       <c r="F47" t="n">
-        <v>515.3112</v>
+        <v>36000</v>
       </c>
       <c r="G47" t="n">
-        <v>22.03333333333333</v>
+        <v>21.91333333333329</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2052,23 +2144,31 @@
         <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="F48" t="n">
-        <v>282333.0207</v>
+        <v>515.3112</v>
       </c>
       <c r="G48" t="n">
+        <v>21.92833333333329</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>22</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,29 +2181,37 @@
         <v>22</v>
       </c>
       <c r="C49" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="D49" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="E49" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>282333.0207</v>
+      </c>
+      <c r="G49" t="n">
+        <v>21.94333333333329</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>22</v>
       </c>
-      <c r="F49" t="n">
-        <v>204619.9518</v>
-      </c>
-      <c r="G49" t="n">
-        <v>22.03333333333333</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,32 +2221,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C50" t="n">
-        <v>23.7</v>
+        <v>22.1</v>
       </c>
       <c r="D50" t="n">
-        <v>23.7</v>
+        <v>22.4</v>
       </c>
       <c r="E50" t="n">
         <v>22</v>
       </c>
       <c r="F50" t="n">
-        <v>1884125.0325</v>
+        <v>204619.9518</v>
       </c>
       <c r="G50" t="n">
-        <v>22.6</v>
+        <v>21.96166666666662</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>22</v>
+      </c>
+      <c r="K50" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,32 +2264,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23.8</v>
+        <v>22.1</v>
       </c>
       <c r="C51" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D51" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="E51" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="F51" t="n">
-        <v>399564.8016</v>
+        <v>1884125.0325</v>
       </c>
       <c r="G51" t="n">
-        <v>23.2</v>
+        <v>21.99999999999995</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2307,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="C52" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="D52" t="n">
         <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="F52" t="n">
-        <v>450083.8165</v>
+        <v>399564.8016</v>
       </c>
       <c r="G52" t="n">
-        <v>23.53333333333333</v>
+        <v>22.03833333333329</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2331,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2348,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C53" t="n">
         <v>23.1</v>
       </c>
-      <c r="C53" t="n">
-        <v>24.2</v>
-      </c>
       <c r="D53" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="E53" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="F53" t="n">
-        <v>145376.1945</v>
+        <v>450083.8165</v>
       </c>
       <c r="G53" t="n">
-        <v>23.7</v>
+        <v>22.07333333333328</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2372,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2389,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C54" t="n">
         <v>24.2</v>
       </c>
-      <c r="C54" t="n">
-        <v>24.3</v>
-      </c>
       <c r="D54" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E54" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="F54" t="n">
-        <v>191700.9698115226</v>
+        <v>145376.1945</v>
       </c>
       <c r="G54" t="n">
-        <v>23.86666666666666</v>
+        <v>22.12499999999995</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2413,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2430,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="C55" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D55" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="E55" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="F55" t="n">
-        <v>10444.4476</v>
+        <v>191700.9698115226</v>
       </c>
       <c r="G55" t="n">
-        <v>24.06666666666666</v>
+        <v>22.17833333333329</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2454,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2471,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="D56" t="n">
         <v>24.2</v>
       </c>
       <c r="E56" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F56" t="n">
-        <v>68855.629</v>
+        <v>10444.4476</v>
       </c>
       <c r="G56" t="n">
-        <v>24</v>
+        <v>22.22166666666662</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2495,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2512,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="C57" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D57" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="E57" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="F57" t="n">
-        <v>52695.5496</v>
+        <v>68855.629</v>
       </c>
       <c r="G57" t="n">
-        <v>23.83333333333333</v>
+        <v>22.26999999999996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2553,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C58" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D58" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="E58" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="F58" t="n">
-        <v>1123648.9476</v>
+        <v>52695.5496</v>
       </c>
       <c r="G58" t="n">
-        <v>23.8</v>
+        <v>22.30833333333329</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2594,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C59" t="n">
         <v>23.6</v>
       </c>
-      <c r="C59" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D59" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="E59" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F59" t="n">
-        <v>649210.5178</v>
+        <v>1123648.9476</v>
       </c>
       <c r="G59" t="n">
-        <v>23.63333333333333</v>
+        <v>22.33666666666662</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2635,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C60" t="n">
         <v>23.5</v>
       </c>
-      <c r="C60" t="n">
-        <v>23.3</v>
-      </c>
       <c r="D60" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E60" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F60" t="n">
-        <v>77059.8461</v>
+        <v>649210.5178</v>
       </c>
       <c r="G60" t="n">
-        <v>23.46666666666667</v>
+        <v>22.36333333333329</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2659,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2676,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C61" t="n">
         <v>23.3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>22.7</v>
       </c>
       <c r="D61" t="n">
         <v>23.5</v>
       </c>
       <c r="E61" t="n">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
       <c r="F61" t="n">
-        <v>401134.5986</v>
+        <v>77059.8461</v>
       </c>
       <c r="G61" t="n">
-        <v>23.16666666666667</v>
+        <v>22.38666666666662</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2717,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C62" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="D62" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="E62" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="F62" t="n">
-        <v>422475.7496</v>
+        <v>401134.5986</v>
       </c>
       <c r="G62" t="n">
-        <v>22.96666666666667</v>
+        <v>22.39999999999995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2741,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2758,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>23</v>
+      </c>
+      <c r="C63" t="n">
         <v>22.9</v>
       </c>
-      <c r="C63" t="n">
-        <v>23.2</v>
-      </c>
       <c r="D63" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="E63" t="n">
         <v>22.9</v>
       </c>
       <c r="F63" t="n">
-        <v>229668.1414</v>
+        <v>422475.7496</v>
       </c>
       <c r="G63" t="n">
-        <v>22.93333333333334</v>
+        <v>22.41499999999995</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2782,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2799,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="C64" t="n">
         <v>23.2</v>
       </c>
       <c r="D64" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E64" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="F64" t="n">
-        <v>73574.7066</v>
+        <v>229668.1414</v>
       </c>
       <c r="G64" t="n">
-        <v>23.1</v>
+        <v>22.44166666666662</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2823,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2644,16 +2846,16 @@
         <v>23.2</v>
       </c>
       <c r="D65" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E65" t="n">
         <v>23.2</v>
       </c>
-      <c r="E65" t="n">
-        <v>23.1</v>
-      </c>
       <c r="F65" t="n">
-        <v>234579.6356</v>
+        <v>73574.7066</v>
       </c>
       <c r="G65" t="n">
-        <v>23.20000000000001</v>
+        <v>22.46166666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2881,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C66" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D66" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="E66" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="F66" t="n">
-        <v>34935.1482</v>
+        <v>234579.6356</v>
       </c>
       <c r="G66" t="n">
-        <v>23.30000000000001</v>
+        <v>22.48166666666662</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2922,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C67" t="n">
         <v>23.5</v>
       </c>
-      <c r="C67" t="n">
-        <v>23.9</v>
-      </c>
       <c r="D67" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="E67" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F67" t="n">
-        <v>96482.06789999999</v>
+        <v>34935.1482</v>
       </c>
       <c r="G67" t="n">
-        <v>23.53333333333333</v>
+        <v>22.50666666666662</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2946,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2963,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="C68" t="n">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="E68" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="F68" t="n">
-        <v>613123.7087520325</v>
+        <v>96482.06789999999</v>
       </c>
       <c r="G68" t="n">
-        <v>24.1</v>
+        <v>22.53999999999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3004,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="C69" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D69" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="F69" t="n">
-        <v>5048.7327</v>
+        <v>613123.7087520325</v>
       </c>
       <c r="G69" t="n">
-        <v>24.5</v>
+        <v>22.58999999999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +3048,19 @@
         <v>24.7</v>
       </c>
       <c r="C70" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="D70" t="n">
         <v>24.7</v>
       </c>
       <c r="E70" t="n">
-        <v>23.8</v>
+        <v>24.7</v>
       </c>
       <c r="F70" t="n">
-        <v>40215.305</v>
+        <v>5048.7327</v>
       </c>
       <c r="G70" t="n">
-        <v>24.5</v>
+        <v>22.63333333333329</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3086,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C71" t="n">
         <v>23.9</v>
       </c>
-      <c r="C71" t="n">
-        <v>23.4</v>
-      </c>
       <c r="D71" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E71" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="F71" t="n">
-        <v>92229.48970000001</v>
+        <v>40215.305</v>
       </c>
       <c r="G71" t="n">
-        <v>24</v>
+        <v>22.66166666666663</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3127,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="C72" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D72" t="n">
         <v>23.9</v>
       </c>
       <c r="E72" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="F72" t="n">
-        <v>39369.4772</v>
+        <v>92229.48970000001</v>
       </c>
       <c r="G72" t="n">
-        <v>23.73333333333333</v>
+        <v>22.68666666666662</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3151,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3168,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C73" t="n">
         <v>23.9</v>
       </c>
-      <c r="C73" t="n">
-        <v>24.1</v>
-      </c>
       <c r="D73" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E73" t="n">
         <v>23.6</v>
       </c>
       <c r="F73" t="n">
-        <v>245492.7727</v>
+        <v>39369.4772</v>
       </c>
       <c r="G73" t="n">
-        <v>23.8</v>
+        <v>22.7083333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3209,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C74" t="n">
         <v>24.1</v>
       </c>
-      <c r="C74" t="n">
-        <v>24.6</v>
-      </c>
       <c r="D74" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="E74" t="n">
         <v>23.6</v>
       </c>
       <c r="F74" t="n">
-        <v>128624.013</v>
+        <v>245492.7727</v>
       </c>
       <c r="G74" t="n">
-        <v>24.2</v>
+        <v>22.73666666666663</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3233,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3250,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C75" t="n">
         <v>24.6</v>
       </c>
-      <c r="C75" t="n">
-        <v>25.3</v>
-      </c>
       <c r="D75" t="n">
-        <v>25.6</v>
+        <v>24.6</v>
       </c>
       <c r="E75" t="n">
-        <v>24.6</v>
+        <v>23.6</v>
       </c>
       <c r="F75" t="n">
-        <v>1299039.33317696</v>
+        <v>128624.013</v>
       </c>
       <c r="G75" t="n">
-        <v>24.66666666666667</v>
+        <v>22.77999999999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3274,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3291,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C76" t="n">
         <v>25.3</v>
       </c>
-      <c r="C76" t="n">
-        <v>24.7</v>
-      </c>
       <c r="D76" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="E76" t="n">
         <v>24.6</v>
       </c>
       <c r="F76" t="n">
-        <v>355780.5972</v>
+        <v>1299039.33317696</v>
       </c>
       <c r="G76" t="n">
-        <v>24.86666666666666</v>
+        <v>22.83333333333329</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3315,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3332,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C77" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D77" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E77" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="F77" t="n">
-        <v>104273.1051</v>
+        <v>355780.5972</v>
       </c>
       <c r="G77" t="n">
-        <v>25.06666666666666</v>
+        <v>22.87666666666663</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3373,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C78" t="n">
         <v>25.2</v>
       </c>
-      <c r="C78" t="n">
-        <v>25.5</v>
-      </c>
       <c r="D78" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="E78" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="F78" t="n">
-        <v>158275.2437</v>
+        <v>104273.1051</v>
       </c>
       <c r="G78" t="n">
-        <v>25.13333333333333</v>
+        <v>22.92333333333329</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3414,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C79" t="n">
         <v>25.5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>23.5</v>
       </c>
       <c r="D79" t="n">
         <v>25.5</v>
       </c>
       <c r="E79" t="n">
-        <v>23.5</v>
+        <v>25.2</v>
       </c>
       <c r="F79" t="n">
-        <v>558628.6285</v>
+        <v>158275.2437</v>
       </c>
       <c r="G79" t="n">
-        <v>24.73333333333333</v>
+        <v>22.97333333333329</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3438,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3455,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.9</v>
+        <v>25.5</v>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="D80" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="E80" t="n">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="F80" t="n">
-        <v>98710.0196</v>
+        <v>558628.6285</v>
       </c>
       <c r="G80" t="n">
-        <v>24.33333333333333</v>
+        <v>22.99833333333329</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3479,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3496,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="C81" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D81" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E81" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F81" t="n">
-        <v>193791.966</v>
+        <v>98710.0196</v>
       </c>
       <c r="G81" t="n">
-        <v>23.96666666666666</v>
+        <v>23.03333333333329</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3537,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="C82" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D82" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="E82" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="F82" t="n">
-        <v>169464.7528</v>
+        <v>193791.966</v>
       </c>
       <c r="G82" t="n">
-        <v>24.43333333333333</v>
+        <v>23.07166666666663</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3578,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="C83" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="D83" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="E83" t="n">
         <v>24.1</v>
       </c>
       <c r="F83" t="n">
-        <v>272078.8712032258</v>
+        <v>169464.7528</v>
       </c>
       <c r="G83" t="n">
-        <v>24.53333333333333</v>
+        <v>23.11999999999996</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3619,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C84" t="n">
         <v>24.3</v>
       </c>
-      <c r="C84" t="n">
-        <v>24</v>
-      </c>
       <c r="D84" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="E84" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="F84" t="n">
-        <v>542682.4578</v>
+        <v>272078.8712032258</v>
       </c>
       <c r="G84" t="n">
-        <v>24.4</v>
+        <v>23.1583333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3643,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3660,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C85" t="n">
         <v>24</v>
       </c>
-      <c r="C85" t="n">
-        <v>23.3</v>
-      </c>
       <c r="D85" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E85" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="F85" t="n">
-        <v>244729.6061</v>
+        <v>542682.4578</v>
       </c>
       <c r="G85" t="n">
-        <v>23.86666666666666</v>
+        <v>23.19166666666663</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3684,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3701,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>24</v>
+      </c>
+      <c r="C86" t="n">
         <v>23.3</v>
       </c>
-      <c r="C86" t="n">
-        <v>23.6</v>
-      </c>
       <c r="D86" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="E86" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n">
-        <v>81626.71513083304</v>
+        <v>244729.6061</v>
       </c>
       <c r="G86" t="n">
-        <v>23.63333333333333</v>
+        <v>23.2133333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3742,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C87" t="n">
         <v>23.6</v>
       </c>
-      <c r="C87" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D87" t="n">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="E87" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F87" t="n">
-        <v>83861.45940000001</v>
+        <v>81626.71513083304</v>
       </c>
       <c r="G87" t="n">
-        <v>23.46666666666667</v>
+        <v>23.23999999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3783,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C88" t="n">
         <v>23.5</v>
       </c>
-      <c r="C88" t="n">
-        <v>23.7</v>
-      </c>
       <c r="D88" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="E88" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F88" t="n">
-        <v>128073.7697</v>
+        <v>83861.45940000001</v>
       </c>
       <c r="G88" t="n">
-        <v>23.6</v>
+        <v>23.26666666666663</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3807,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3824,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C89" t="n">
         <v>23.7</v>
       </c>
       <c r="D89" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="E89" t="n">
         <v>23.3</v>
       </c>
       <c r="F89" t="n">
-        <v>12451.2166</v>
+        <v>128073.7697</v>
       </c>
       <c r="G89" t="n">
-        <v>23.63333333333334</v>
+        <v>23.29333333333329</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3868,19 @@
         <v>23.3</v>
       </c>
       <c r="C90" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D90" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E90" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="F90" t="n">
-        <v>167045.5317531915</v>
+        <v>12451.2166</v>
       </c>
       <c r="G90" t="n">
-        <v>23.53333333333333</v>
+        <v>23.31999999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3889,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3906,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C91" t="n">
         <v>23.2</v>
       </c>
       <c r="D91" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E91" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F91" t="n">
-        <v>71389.7038</v>
+        <v>167045.5317531915</v>
       </c>
       <c r="G91" t="n">
-        <v>23.36666666666667</v>
+        <v>23.3383333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3947,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C92" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D92" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E92" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F92" t="n">
-        <v>1231.6175</v>
+        <v>71389.7038</v>
       </c>
       <c r="G92" t="n">
-        <v>23.3</v>
+        <v>23.35666666666663</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3971,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3988,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="C93" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D93" t="n">
         <v>23.6</v>
       </c>
       <c r="E93" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F93" t="n">
-        <v>336318.4207</v>
+        <v>1231.6175</v>
       </c>
       <c r="G93" t="n">
-        <v>23.43333333333333</v>
+        <v>23.37999999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +4032,19 @@
         <v>23.4</v>
       </c>
       <c r="C94" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D94" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E94" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F94" t="n">
-        <v>53194.264</v>
+        <v>336318.4207</v>
       </c>
       <c r="G94" t="n">
-        <v>23.53333333333333</v>
+        <v>23.40499999999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +4053,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3691,19 +4073,19 @@
         <v>23.4</v>
       </c>
       <c r="C95" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D95" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E95" t="n">
         <v>23.3</v>
       </c>
       <c r="F95" t="n">
-        <v>24131.3702</v>
+        <v>53194.264</v>
       </c>
       <c r="G95" t="n">
-        <v>23.5</v>
+        <v>23.4283333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4111,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C96" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="D96" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="E96" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="F96" t="n">
-        <v>51027.7655</v>
+        <v>24131.3702</v>
       </c>
       <c r="G96" t="n">
-        <v>23.33333333333333</v>
+        <v>23.44999999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4152,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C97" t="n">
         <v>23.1</v>
       </c>
-      <c r="C97" t="n">
-        <v>22.8</v>
-      </c>
       <c r="D97" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E97" t="n">
         <v>23.1</v>
       </c>
-      <c r="E97" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F97" t="n">
-        <v>460566.569</v>
+        <v>51027.7655</v>
       </c>
       <c r="G97" t="n">
-        <v>23.1</v>
+        <v>23.46666666666664</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4176,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4193,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C98" t="n">
         <v>22.8</v>
       </c>
-      <c r="C98" t="n">
-        <v>23</v>
-      </c>
       <c r="D98" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="E98" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F98" t="n">
-        <v>70495.4954</v>
+        <v>460566.569</v>
       </c>
       <c r="G98" t="n">
-        <v>22.96666666666667</v>
+        <v>23.47499999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4217,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4234,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="C99" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D99" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E99" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="F99" t="n">
-        <v>54494.78791163793</v>
+        <v>70495.4954</v>
       </c>
       <c r="G99" t="n">
-        <v>23</v>
+        <v>23.48666666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4275,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="C100" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E100" t="n">
         <v>23.1</v>
       </c>
-      <c r="D100" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E100" t="n">
-        <v>22.8</v>
-      </c>
       <c r="F100" t="n">
-        <v>235882.7133</v>
+        <v>54494.78791163793</v>
       </c>
       <c r="G100" t="n">
-        <v>23.1</v>
+        <v>23.49999999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4299,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4319,19 @@
         <v>22.8</v>
       </c>
       <c r="C101" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="D101" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E101" t="n">
         <v>22.8</v>
       </c>
-      <c r="E101" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F101" t="n">
-        <v>88716.3049</v>
+        <v>235882.7133</v>
       </c>
       <c r="G101" t="n">
-        <v>23</v>
+        <v>23.51333333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4357,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="C102" t="n">
         <v>22.7</v>
       </c>
       <c r="D102" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E102" t="n">
         <v>22.7</v>
       </c>
-      <c r="E102" t="n">
-        <v>22.6</v>
-      </c>
       <c r="F102" t="n">
-        <v>68917.52860000001</v>
+        <v>88716.3049</v>
       </c>
       <c r="G102" t="n">
-        <v>22.83333333333333</v>
+        <v>23.52333333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3974,16 +4404,16 @@
         <v>22.7</v>
       </c>
       <c r="D103" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="E103" t="n">
         <v>22.6</v>
       </c>
       <c r="F103" t="n">
-        <v>402352.4145</v>
+        <v>68917.52860000001</v>
       </c>
       <c r="G103" t="n">
-        <v>22.7</v>
+        <v>23.53333333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4006,19 +4442,19 @@
         <v>22.7</v>
       </c>
       <c r="C104" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D104" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="E104" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F104" t="n">
-        <v>347897.9612222707</v>
+        <v>402352.4145</v>
       </c>
       <c r="G104" t="n">
-        <v>22.73333333333333</v>
+        <v>23.54499999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4463,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,36 +4480,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C105" t="n">
         <v>22.8</v>
       </c>
-      <c r="C105" t="n">
-        <v>23.2</v>
-      </c>
       <c r="D105" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="E105" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F105" t="n">
-        <v>164754.1013</v>
+        <v>347897.9612222707</v>
       </c>
       <c r="G105" t="n">
-        <v>22.9</v>
+        <v>23.55666666666665</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4079,33 +4521,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C106" t="n">
         <v>23.2</v>
       </c>
-      <c r="C106" t="n">
-        <v>23.3</v>
-      </c>
       <c r="D106" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E106" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="F106" t="n">
-        <v>25395.636</v>
+        <v>164754.1013</v>
       </c>
       <c r="G106" t="n">
-        <v>23.09999999999999</v>
+        <v>23.57499999999998</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,33 +4562,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C107" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D107" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E107" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="F107" t="n">
-        <v>27761.3876</v>
+        <v>25395.636</v>
       </c>
       <c r="G107" t="n">
-        <v>23.23333333333333</v>
+        <v>23.59666666666665</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4161,7 +4603,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="C108" t="n">
         <v>23.2</v>
@@ -4173,21 +4615,21 @@
         <v>22.8</v>
       </c>
       <c r="F108" t="n">
-        <v>53588.7344</v>
+        <v>27761.3876</v>
       </c>
       <c r="G108" t="n">
-        <v>23.23333333333333</v>
+        <v>23.61666666666665</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,33 +4644,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C109" t="n">
         <v>23.2</v>
       </c>
-      <c r="C109" t="n">
-        <v>23.1</v>
-      </c>
       <c r="D109" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E109" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F109" t="n">
-        <v>349468.4397</v>
+        <v>53588.7344</v>
       </c>
       <c r="G109" t="n">
-        <v>23.16666666666666</v>
+        <v>23.63666666666665</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4243,33 +4685,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="C110" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D110" t="n">
         <v>23.8</v>
       </c>
       <c r="E110" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="F110" t="n">
-        <v>201339.4567</v>
+        <v>349468.4397</v>
       </c>
       <c r="G110" t="n">
-        <v>23.19999999999999</v>
+        <v>23.65333333333331</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4284,10 +4726,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C111" t="n">
         <v>23.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>23.8</v>
       </c>
       <c r="D111" t="n">
         <v>23.8</v>
@@ -4296,21 +4738,21 @@
         <v>23.3</v>
       </c>
       <c r="F111" t="n">
-        <v>569585.6309588983</v>
+        <v>201339.4567</v>
       </c>
       <c r="G111" t="n">
-        <v>23.39999999999999</v>
+        <v>23.64666666666665</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4325,33 +4767,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="C112" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D112" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="E112" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F112" t="n">
-        <v>555958.7184</v>
+        <v>569585.6309588983</v>
       </c>
       <c r="G112" t="n">
-        <v>23.56666666666666</v>
+        <v>23.64666666666665</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,30 +4811,30 @@
         <v>23.9</v>
       </c>
       <c r="C113" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="D113" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E113" t="n">
         <v>23.6</v>
       </c>
       <c r="F113" t="n">
-        <v>205984.3371</v>
+        <v>555958.7184</v>
       </c>
       <c r="G113" t="n">
-        <v>23.8</v>
+        <v>23.65499999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,30 +4852,30 @@
         <v>23.9</v>
       </c>
       <c r="C114" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D114" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="E114" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="F114" t="n">
-        <v>236017.8122360656</v>
+        <v>205984.3371</v>
       </c>
       <c r="G114" t="n">
-        <v>24</v>
+        <v>23.65166666666665</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>24</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,33 +4890,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C115" t="n">
         <v>24.4</v>
       </c>
-      <c r="C115" t="n">
-        <v>24.9</v>
-      </c>
       <c r="D115" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E115" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="F115" t="n">
-        <v>454085.4949639344</v>
+        <v>236017.8122360656</v>
       </c>
       <c r="G115" t="n">
-        <v>24.43333333333333</v>
+        <v>23.65333333333331</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,22 +4931,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C116" t="n">
         <v>24.9</v>
       </c>
-      <c r="C116" t="n">
-        <v>24.7</v>
-      </c>
       <c r="D116" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E116" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F116" t="n">
-        <v>356390.7349</v>
+        <v>454085.4949639344</v>
       </c>
       <c r="G116" t="n">
-        <v>24.66666666666666</v>
+        <v>23.67333333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4513,7 +4955,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,22 +4972,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C117" t="n">
         <v>24.7</v>
-      </c>
-      <c r="C117" t="n">
-        <v>25.1</v>
       </c>
       <c r="D117" t="n">
         <v>25.1</v>
       </c>
       <c r="E117" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F117" t="n">
-        <v>217913.6497</v>
+        <v>356390.7349</v>
       </c>
       <c r="G117" t="n">
-        <v>24.9</v>
+        <v>23.68499999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4552,7 +4996,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,22 +5013,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C118" t="n">
         <v>25.1</v>
       </c>
-      <c r="C118" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D118" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E118" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F118" t="n">
-        <v>453559.2683</v>
+        <v>217913.6497</v>
       </c>
       <c r="G118" t="n">
-        <v>25.06666666666666</v>
+        <v>23.70666666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4591,7 +5037,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,22 +5054,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C119" t="n">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="D119" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
       </c>
       <c r="E119" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F119" t="n">
-        <v>584866.0524</v>
+        <v>453559.2683</v>
       </c>
       <c r="G119" t="n">
-        <v>25.53333333333333</v>
+        <v>23.73666666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4630,7 +5078,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,22 +5095,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C120" t="n">
         <v>26.1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>26.2</v>
       </c>
       <c r="D120" t="n">
         <v>26.2</v>
       </c>
       <c r="E120" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="F120" t="n">
-        <v>393205.8108</v>
+        <v>584866.0524</v>
       </c>
       <c r="G120" t="n">
-        <v>25.9</v>
+        <v>23.77999999999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4669,7 +5119,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,7 +5136,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C121" t="n">
         <v>26.2</v>
@@ -4693,13 +5145,13 @@
         <v>26.2</v>
       </c>
       <c r="E121" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F121" t="n">
-        <v>430523.9077230769</v>
+        <v>393205.8108</v>
       </c>
       <c r="G121" t="n">
-        <v>26.16666666666667</v>
+        <v>23.82833333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4708,7 +5160,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,22 +5177,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>26</v>
+      </c>
+      <c r="C122" t="n">
         <v>26.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>25.6</v>
       </c>
       <c r="D122" t="n">
         <v>26.2</v>
       </c>
       <c r="E122" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="F122" t="n">
-        <v>286053.4449484496</v>
+        <v>430523.9077230769</v>
       </c>
       <c r="G122" t="n">
-        <v>26</v>
+        <v>23.88666666666665</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4747,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,22 +5218,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C123" t="n">
         <v>25.6</v>
       </c>
-      <c r="C123" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D123" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E123" t="n">
         <v>25.5</v>
       </c>
       <c r="F123" t="n">
-        <v>214675.0719515504</v>
+        <v>286053.4449484496</v>
       </c>
       <c r="G123" t="n">
-        <v>25.86666666666666</v>
+        <v>23.93166666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4786,7 +5242,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,22 +5259,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C124" t="n">
         <v>25.8</v>
       </c>
-      <c r="C124" t="n">
-        <v>26</v>
-      </c>
       <c r="D124" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E124" t="n">
         <v>25.5</v>
       </c>
       <c r="F124" t="n">
-        <v>58966.13765271318</v>
+        <v>214675.0719515504</v>
       </c>
       <c r="G124" t="n">
-        <v>25.8</v>
+        <v>23.97499999999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4825,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,22 +5300,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C125" t="n">
         <v>26</v>
-      </c>
-      <c r="C125" t="n">
-        <v>24.4</v>
       </c>
       <c r="D125" t="n">
         <v>26</v>
       </c>
       <c r="E125" t="n">
-        <v>24.2</v>
+        <v>25.5</v>
       </c>
       <c r="F125" t="n">
-        <v>467212.7742484496</v>
+        <v>58966.13765271318</v>
       </c>
       <c r="G125" t="n">
-        <v>25.4</v>
+        <v>24.02166666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4864,7 +5324,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,22 +5341,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="C126" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D126" t="n">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="E126" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="F126" t="n">
-        <v>82602.67329999999</v>
+        <v>467212.7742484496</v>
       </c>
       <c r="G126" t="n">
-        <v>25.03333333333333</v>
+        <v>24.04166666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4903,7 +5365,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,22 +5382,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C127" t="n">
         <v>24.7</v>
       </c>
-      <c r="C127" t="n">
-        <v>25.1</v>
-      </c>
       <c r="D127" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="E127" t="n">
         <v>24.6</v>
       </c>
       <c r="F127" t="n">
-        <v>163648.1343111554</v>
+        <v>82602.67329999999</v>
       </c>
       <c r="G127" t="n">
-        <v>24.73333333333333</v>
+        <v>24.06166666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4942,7 +5406,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,22 +5423,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C128" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D128" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E128" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F128" t="n">
-        <v>305097.8363</v>
+        <v>163648.1343111554</v>
       </c>
       <c r="G128" t="n">
-        <v>24.7</v>
+        <v>24.08166666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4981,7 +5447,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,22 +5464,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="C129" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="D129" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E129" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F129" t="n">
-        <v>102750.8154</v>
+        <v>305097.8363</v>
       </c>
       <c r="G129" t="n">
-        <v>24.8</v>
+        <v>24.07166666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5020,7 +5488,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,22 +5505,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="C130" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="E130" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F130" t="n">
-        <v>246343.0295754864</v>
+        <v>102750.8154</v>
       </c>
       <c r="G130" t="n">
-        <v>24.66666666666667</v>
+        <v>24.07666666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5059,7 +5529,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,22 +5546,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C131" t="n">
         <v>24.7</v>
       </c>
-      <c r="C131" t="n">
-        <v>25.5</v>
-      </c>
       <c r="D131" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="E131" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F131" t="n">
-        <v>280093.9922902829</v>
+        <v>246343.0295754864</v>
       </c>
       <c r="G131" t="n">
-        <v>25.06666666666667</v>
+        <v>24.08999999999997</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5098,7 +5570,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,22 +5587,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C132" t="n">
         <v>25.5</v>
       </c>
-      <c r="C132" t="n">
-        <v>25</v>
-      </c>
       <c r="D132" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="E132" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="F132" t="n">
-        <v>172924.6945</v>
+        <v>280093.9922902829</v>
       </c>
       <c r="G132" t="n">
-        <v>25.06666666666667</v>
+        <v>24.12499999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5137,7 +5611,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,22 +5628,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C133" t="n">
         <v>25</v>
       </c>
-      <c r="C133" t="n">
-        <v>23.9</v>
-      </c>
       <c r="D133" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E133" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="F133" t="n">
-        <v>465961.06</v>
+        <v>172924.6945</v>
       </c>
       <c r="G133" t="n">
-        <v>24.8</v>
+        <v>24.14333333333331</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5176,7 +5652,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,22 +5669,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C134" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="D134" t="n">
-        <v>24.1</v>
+        <v>25.2</v>
       </c>
       <c r="E134" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F134" t="n">
-        <v>30662.3304</v>
+        <v>465961.06</v>
       </c>
       <c r="G134" t="n">
-        <v>24.3</v>
+        <v>24.13999999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5215,7 +5693,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,22 +5710,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D135" t="n">
         <v>24.1</v>
       </c>
       <c r="E135" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="F135" t="n">
-        <v>67556.3864</v>
+        <v>30662.3304</v>
       </c>
       <c r="G135" t="n">
-        <v>23.93333333333333</v>
+        <v>24.12999999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5254,7 +5734,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,19 +5754,19 @@
         <v>24.1</v>
       </c>
       <c r="C136" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="D136" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E136" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="F136" t="n">
-        <v>653595.6388</v>
+        <v>67556.3864</v>
       </c>
       <c r="G136" t="n">
-        <v>24.03333333333333</v>
+        <v>24.10666666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5293,7 +5775,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,22 +5792,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="C137" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="D137" t="n">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="E137" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="F137" t="n">
-        <v>360049.8468164658</v>
+        <v>653595.6388</v>
       </c>
       <c r="G137" t="n">
-        <v>24.2</v>
+        <v>24.09833333333331</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5332,7 +5816,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,22 +5833,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C138" t="n">
         <v>24.5</v>
       </c>
       <c r="D138" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E138" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F138" t="n">
-        <v>170476.9583695341</v>
+        <v>360049.8468164658</v>
       </c>
       <c r="G138" t="n">
-        <v>24.4</v>
+        <v>24.08666666666664</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5371,7 +5857,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,22 +5874,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C139" t="n">
         <v>24.5</v>
       </c>
       <c r="D139" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E139" t="n">
         <v>24.3</v>
       </c>
       <c r="F139" t="n">
-        <v>92647.3527</v>
+        <v>170476.9583695341</v>
       </c>
       <c r="G139" t="n">
-        <v>24.5</v>
+        <v>24.06999999999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5410,7 +5898,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,19 +5918,19 @@
         <v>24.5</v>
       </c>
       <c r="C140" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D140" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="E140" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F140" t="n">
-        <v>37407.9423</v>
+        <v>92647.3527</v>
       </c>
       <c r="G140" t="n">
-        <v>24.46666666666666</v>
+        <v>24.08666666666664</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5449,7 +5939,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,22 +5956,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C141" t="n">
         <v>24.4</v>
       </c>
-      <c r="C141" t="n">
-        <v>24</v>
-      </c>
       <c r="D141" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E141" t="n">
         <v>24.4</v>
       </c>
-      <c r="E141" t="n">
-        <v>24</v>
-      </c>
       <c r="F141" t="n">
-        <v>523144.8132</v>
+        <v>37407.9423</v>
       </c>
       <c r="G141" t="n">
-        <v>24.29999999999999</v>
+        <v>24.09333333333331</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5488,7 +5980,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,22 +5997,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C142" t="n">
         <v>24</v>
       </c>
-      <c r="C142" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D142" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="E142" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="F142" t="n">
-        <v>118908.3741</v>
+        <v>523144.8132</v>
       </c>
       <c r="G142" t="n">
-        <v>24.06666666666666</v>
+        <v>24.08666666666664</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5527,7 +6021,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,22 +6038,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="C143" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D143" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E143" t="n">
         <v>23.7</v>
       </c>
-      <c r="E143" t="n">
-        <v>23.5</v>
-      </c>
       <c r="F143" t="n">
-        <v>48120.7478</v>
+        <v>118908.3741</v>
       </c>
       <c r="G143" t="n">
-        <v>23.79999999999999</v>
+        <v>24.06833333333331</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5566,7 +6062,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5584,7 +6082,7 @@
         <v>23.6</v>
       </c>
       <c r="C144" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D144" t="n">
         <v>23.7</v>
@@ -5593,10 +6091,10 @@
         <v>23.5</v>
       </c>
       <c r="F144" t="n">
-        <v>180835.5352</v>
+        <v>48120.7478</v>
       </c>
       <c r="G144" t="n">
-        <v>23.69999999999999</v>
+        <v>24.05666666666664</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5605,7 +6103,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,22 +6120,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C145" t="n">
         <v>23.7</v>
       </c>
       <c r="D145" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E145" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="F145" t="n">
-        <v>110368.9075</v>
+        <v>180835.5352</v>
       </c>
       <c r="G145" t="n">
-        <v>23.66666666666666</v>
+        <v>24.05166666666664</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5644,7 +6144,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,22 +6161,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C146" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="D146" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="E146" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="F146" t="n">
-        <v>259599.063</v>
+        <v>110368.9075</v>
       </c>
       <c r="G146" t="n">
-        <v>23.59999999999999</v>
+        <v>24.05833333333331</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5683,7 +6185,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,22 +6202,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="C147" t="n">
         <v>23.4</v>
       </c>
       <c r="D147" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E147" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F147" t="n">
-        <v>97135.13250000001</v>
+        <v>259599.063</v>
       </c>
       <c r="G147" t="n">
-        <v>23.5</v>
+        <v>24.05499999999998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5722,7 +6226,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,22 +6243,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="C148" t="n">
         <v>23.4</v>
       </c>
       <c r="D148" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E148" t="n">
         <v>23.4</v>
       </c>
-      <c r="E148" t="n">
-        <v>23.1</v>
-      </c>
       <c r="F148" t="n">
-        <v>71402.9215</v>
+        <v>97135.13250000001</v>
       </c>
       <c r="G148" t="n">
-        <v>23.39999999999999</v>
+        <v>24.05333333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5761,7 +6267,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,13 +6293,13 @@
         <v>23.4</v>
       </c>
       <c r="E149" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="F149" t="n">
-        <v>64069.7515</v>
+        <v>71402.9215</v>
       </c>
       <c r="G149" t="n">
-        <v>23.39999999999999</v>
+        <v>24.04833333333331</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5800,7 +6308,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,22 +6325,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C150" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="D150" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E150" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F150" t="n">
-        <v>67775.74280000001</v>
+        <v>64069.7515</v>
       </c>
       <c r="G150" t="n">
-        <v>23.43333333333332</v>
+        <v>24.04333333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5839,7 +6349,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,22 +6366,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C151" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D151" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E151" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F151" t="n">
-        <v>193877.656</v>
+        <v>67775.74280000001</v>
       </c>
       <c r="G151" t="n">
-        <v>23.43333333333332</v>
+        <v>24.04833333333331</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5878,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,22 +6407,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="C152" t="n">
         <v>23.4</v>
       </c>
       <c r="D152" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E152" t="n">
         <v>23.4</v>
       </c>
       <c r="F152" t="n">
-        <v>40381.0015</v>
+        <v>193877.656</v>
       </c>
       <c r="G152" t="n">
-        <v>23.43333333333332</v>
+        <v>24.05166666666665</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5917,7 +6431,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,22 +6448,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C153" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D153" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E153" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F153" t="n">
-        <v>39110.0718</v>
+        <v>40381.0015</v>
       </c>
       <c r="G153" t="n">
-        <v>23.49999999999999</v>
+        <v>24.04999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5956,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,10 +6489,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C154" t="n">
         <v>23.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>23.5</v>
       </c>
       <c r="D154" t="n">
         <v>23.7</v>
@@ -5983,10 +6501,10 @@
         <v>23.5</v>
       </c>
       <c r="F154" t="n">
-        <v>108542.28</v>
+        <v>39110.0718</v>
       </c>
       <c r="G154" t="n">
-        <v>23.53333333333332</v>
+        <v>24.05166666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5995,7 +6513,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,22 +6530,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C155" t="n">
         <v>23.5</v>
       </c>
       <c r="D155" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E155" t="n">
         <v>23.5</v>
       </c>
       <c r="F155" t="n">
-        <v>55609.9465</v>
+        <v>108542.28</v>
       </c>
       <c r="G155" t="n">
-        <v>23.56666666666665</v>
+        <v>24.05166666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6034,7 +6554,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6061,10 +6583,10 @@
         <v>23.5</v>
       </c>
       <c r="F156" t="n">
-        <v>4556</v>
+        <v>55609.9465</v>
       </c>
       <c r="G156" t="n">
-        <v>23.49999999999999</v>
+        <v>24.05333333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6073,7 +6595,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,22 +6612,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C157" t="n">
         <v>23.5</v>
       </c>
       <c r="D157" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E157" t="n">
         <v>23.5</v>
       </c>
       <c r="F157" t="n">
-        <v>60301.2092</v>
+        <v>4556</v>
       </c>
       <c r="G157" t="n">
-        <v>23.49999999999999</v>
+        <v>24.05999999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6112,7 +6636,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,22 +6653,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C158" t="n">
         <v>23.5</v>
       </c>
       <c r="D158" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E158" t="n">
         <v>23.5</v>
       </c>
       <c r="F158" t="n">
-        <v>152042.9764</v>
+        <v>60301.2092</v>
       </c>
       <c r="G158" t="n">
-        <v>23.49999999999999</v>
+        <v>24.07166666666665</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6151,7 +6677,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,7 +6694,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C159" t="n">
         <v>23.5</v>
@@ -6175,24 +6703,24 @@
         <v>23.5</v>
       </c>
       <c r="E159" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F159" t="n">
-        <v>374168.9824</v>
+        <v>152042.9764</v>
       </c>
       <c r="G159" t="n">
-        <v>23.49999999999999</v>
+        <v>24.07999999999999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6207,22 +6735,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C160" t="n">
         <v>23.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>22.9</v>
       </c>
       <c r="D160" t="n">
         <v>23.5</v>
       </c>
       <c r="E160" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="F160" t="n">
-        <v>87129.1339</v>
+        <v>374168.9824</v>
       </c>
       <c r="G160" t="n">
-        <v>23.29999999999998</v>
+        <v>24.08499999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6231,7 +6759,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,22 +6776,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="C161" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D161" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E161" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F161" t="n">
-        <v>64064.7146</v>
+        <v>87129.1339</v>
       </c>
       <c r="G161" t="n">
-        <v>23.19999999999999</v>
+        <v>24.08166666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6270,7 +6800,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6285,33 +6817,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="C162" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D162" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="E162" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F162" t="n">
-        <v>11</v>
+        <v>64064.7146</v>
       </c>
       <c r="G162" t="n">
-        <v>23.26666666666665</v>
+        <v>24.08999999999999</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,33 +6858,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="C163" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D163" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E163" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="F163" t="n">
-        <v>11497.3006</v>
+        <v>11</v>
       </c>
       <c r="G163" t="n">
-        <v>23.46666666666665</v>
+        <v>24.10666666666666</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,33 +6899,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C164" t="n">
         <v>23.5</v>
       </c>
-      <c r="C164" t="n">
-        <v>23.4</v>
-      </c>
       <c r="D164" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E164" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F164" t="n">
-        <v>99141.3413</v>
+        <v>11497.3006</v>
       </c>
       <c r="G164" t="n">
-        <v>23.53333333333332</v>
+        <v>24.11999999999999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6411,30 +6943,30 @@
         <v>23.5</v>
       </c>
       <c r="C165" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="D165" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="E165" t="n">
         <v>23.4</v>
       </c>
       <c r="F165" t="n">
-        <v>247914.4648</v>
+        <v>99141.3413</v>
       </c>
       <c r="G165" t="n">
-        <v>23.46666666666665</v>
+        <v>24.12999999999999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,33 +6981,33 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C166" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D166" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="E166" t="n">
         <v>23.4</v>
       </c>
       <c r="F166" t="n">
-        <v>155957.0488</v>
+        <v>247914.4648</v>
       </c>
       <c r="G166" t="n">
-        <v>23.49999999999998</v>
+        <v>24.13499999999999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,30 +7025,30 @@
         <v>23.6</v>
       </c>
       <c r="C167" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D167" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="E167" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F167" t="n">
-        <v>132608.7745</v>
+        <v>155957.0488</v>
       </c>
       <c r="G167" t="n">
-        <v>23.46666666666665</v>
+        <v>24.13999999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6531,33 +7063,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C168" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D168" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="E168" t="n">
         <v>23.3</v>
       </c>
       <c r="F168" t="n">
-        <v>93756.5601</v>
+        <v>132608.7745</v>
       </c>
       <c r="G168" t="n">
-        <v>23.43333333333332</v>
+        <v>24.14166666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,33 +7104,33 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="C169" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="D169" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E169" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F169" t="n">
-        <v>238255.1333</v>
+        <v>93756.5601</v>
       </c>
       <c r="G169" t="n">
-        <v>23.49999999999998</v>
+        <v>24.14499999999999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,33 +7145,33 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="C170" t="n">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="D170" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="E170" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="F170" t="n">
-        <v>186473.8851</v>
+        <v>238255.1333</v>
       </c>
       <c r="G170" t="n">
-        <v>23.86666666666665</v>
+        <v>24.15666666666666</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6654,7 +7186,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C171" t="n">
         <v>24.4</v>
@@ -6663,24 +7195,24 @@
         <v>24.5</v>
       </c>
       <c r="E171" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="F171" t="n">
-        <v>215965.1939</v>
+        <v>186473.8851</v>
       </c>
       <c r="G171" t="n">
-        <v>24.19999999999998</v>
+        <v>24.17499999999999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,22 +7227,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C172" t="n">
         <v>24.4</v>
       </c>
-      <c r="C172" t="n">
-        <v>24.7</v>
-      </c>
       <c r="D172" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="E172" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="F172" t="n">
-        <v>470666.5483</v>
+        <v>215965.1939</v>
       </c>
       <c r="G172" t="n">
-        <v>24.49999999999998</v>
+        <v>24.185</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6719,7 +7251,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,22 +7268,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C173" t="n">
         <v>24.7</v>
       </c>
       <c r="D173" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="E173" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F173" t="n">
-        <v>518643.2057</v>
+        <v>470666.5483</v>
       </c>
       <c r="G173" t="n">
-        <v>24.59999999999998</v>
+        <v>24.20333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6758,7 +7292,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,22 +7309,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C174" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="D174" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E174" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="F174" t="n">
-        <v>190026.900614</v>
+        <v>518643.2057</v>
       </c>
       <c r="G174" t="n">
-        <v>24.93333333333332</v>
+        <v>24.215</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6797,7 +7333,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,22 +7350,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C175" t="n">
         <v>25.4</v>
       </c>
-      <c r="C175" t="n">
-        <v>27.3</v>
-      </c>
       <c r="D175" t="n">
-        <v>27.4</v>
+        <v>25.4</v>
       </c>
       <c r="E175" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="F175" t="n">
-        <v>1454280.8581</v>
+        <v>190026.900614</v>
       </c>
       <c r="G175" t="n">
-        <v>25.79999999999998</v>
+        <v>24.23166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6836,7 +7374,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,22 +7391,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>27.1</v>
+        <v>25.4</v>
       </c>
       <c r="C176" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="D176" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E176" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="F176" t="n">
-        <v>1419413.1311</v>
+        <v>1454280.8581</v>
       </c>
       <c r="G176" t="n">
-        <v>26.46666666666665</v>
+        <v>24.27166666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6875,7 +7415,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,22 +7432,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C177" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="D177" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E177" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="F177" t="n">
-        <v>1356740.482271434</v>
+        <v>1419413.1311</v>
       </c>
       <c r="G177" t="n">
-        <v>27.19999999999998</v>
+        <v>24.305</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6914,7 +7456,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,22 +7473,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="C178" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D178" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="E178" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F178" t="n">
-        <v>629395.8498647059</v>
+        <v>1356740.482271434</v>
       </c>
       <c r="G178" t="n">
-        <v>27.16666666666665</v>
+        <v>24.34666666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6953,7 +7497,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,38 +7514,40 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C179" t="n">
         <v>27.2</v>
       </c>
-      <c r="C179" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D179" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E179" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F179" t="n">
-        <v>119065.0288352941</v>
+        <v>629395.8498647059</v>
       </c>
       <c r="G179" t="n">
-        <v>27.16666666666665</v>
+        <v>24.37666666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>1</v>
+        <v>1.225769230769231</v>
       </c>
     </row>
     <row r="180">
@@ -7007,22 +7555,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="C180" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="D180" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E180" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="F180" t="n">
-        <v>866553.8328647059</v>
+        <v>119065.0288352941</v>
       </c>
       <c r="G180" t="n">
-        <v>26.69999999999998</v>
+        <v>24.38666666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7032,11 +7580,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7046,22 +7590,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E181" t="n">
         <v>26.1</v>
       </c>
-      <c r="C181" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D181" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>25.9</v>
-      </c>
       <c r="F181" t="n">
-        <v>454491.5853458015</v>
+        <v>866553.8328647059</v>
       </c>
       <c r="G181" t="n">
-        <v>26.33333333333331</v>
+        <v>24.38666666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7071,11 +7615,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7085,22 +7625,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E182" t="n">
         <v>25.9</v>
       </c>
-      <c r="C182" t="n">
-        <v>26</v>
-      </c>
-      <c r="D182" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E182" t="n">
-        <v>25.6</v>
-      </c>
       <c r="F182" t="n">
-        <v>154276.5522</v>
+        <v>454491.5853458015</v>
       </c>
       <c r="G182" t="n">
-        <v>26.09999999999998</v>
+        <v>24.38499999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7110,11 +7650,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7124,22 +7660,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C183" t="n">
         <v>26</v>
       </c>
-      <c r="C183" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D183" t="n">
-        <v>26.9</v>
+        <v>26.1</v>
       </c>
       <c r="E183" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F183" t="n">
-        <v>239619.6772541985</v>
+        <v>154276.5522</v>
       </c>
       <c r="G183" t="n">
-        <v>26.33333333333331</v>
+        <v>24.39166666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7149,11 +7685,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7163,22 +7695,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>26</v>
+      </c>
+      <c r="C184" t="n">
         <v>26.9</v>
       </c>
-      <c r="C184" t="n">
-        <v>26.3</v>
-      </c>
       <c r="D184" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E184" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F184" t="n">
-        <v>282437.4746</v>
+        <v>239619.6772541985</v>
       </c>
       <c r="G184" t="n">
-        <v>26.39999999999998</v>
+        <v>24.41</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7188,11 +7720,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7202,22 +7730,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C185" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="D185" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E185" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="F185" t="n">
-        <v>394607.1012</v>
+        <v>282437.4746</v>
       </c>
       <c r="G185" t="n">
-        <v>26.96666666666664</v>
+        <v>24.415</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7227,11 +7755,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7241,22 +7765,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>27</v>
+      </c>
+      <c r="C186" t="n">
         <v>27.7</v>
       </c>
-      <c r="C186" t="n">
-        <v>29</v>
-      </c>
       <c r="D186" t="n">
-        <v>29.2</v>
+        <v>27.7</v>
       </c>
       <c r="E186" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="F186" t="n">
-        <v>345082.9414263699</v>
+        <v>394607.1012</v>
       </c>
       <c r="G186" t="n">
-        <v>27.66666666666665</v>
+        <v>24.47</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7266,11 +7790,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7280,22 +7800,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>29</v>
+      </c>
+      <c r="D187" t="n">
         <v>29.2</v>
       </c>
-      <c r="C187" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>34.5</v>
-      </c>
       <c r="E187" t="n">
-        <v>29</v>
+        <v>27.7</v>
       </c>
       <c r="F187" t="n">
-        <v>1767685.195333981</v>
+        <v>345082.9414263699</v>
       </c>
       <c r="G187" t="n">
-        <v>29.83333333333331</v>
+        <v>24.54166666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7305,11 +7825,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7319,22 +7835,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C188" t="n">
         <v>32.8</v>
       </c>
-      <c r="C188" t="n">
-        <v>32.5</v>
-      </c>
       <c r="D188" t="n">
-        <v>33.1</v>
+        <v>34.5</v>
       </c>
       <c r="E188" t="n">
-        <v>30.6</v>
+        <v>29</v>
       </c>
       <c r="F188" t="n">
-        <v>735768.4752314024</v>
+        <v>1767685.195333981</v>
       </c>
       <c r="G188" t="n">
-        <v>31.43333333333331</v>
+        <v>24.67</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7344,11 +7860,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7358,37 +7870,70 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C189" t="n">
         <v>32.5</v>
       </c>
-      <c r="C189" t="n">
-        <v>31.8</v>
-      </c>
       <c r="D189" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="E189" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="F189" t="n">
-        <v>768073.3396832298</v>
+        <v>735768.4752314024</v>
       </c>
       <c r="G189" t="n">
-        <v>32.36666666666665</v>
+        <v>24.80666666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>768073.3396832298</v>
+      </c>
+      <c r="G190" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>46373.7492</v>
       </c>
       <c r="G2" t="n">
+        <v>21.37333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>20.88833333333331</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>255568.7611</v>
       </c>
       <c r="G3" t="n">
+        <v>21.43333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>20.90333333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>180229.1551</v>
       </c>
       <c r="G4" t="n">
+        <v>21.46666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>20.90999999999997</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>6374.6925</v>
       </c>
       <c r="G5" t="n">
+        <v>21.53333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>20.92666666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.6</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>265797.9908</v>
       </c>
       <c r="G6" t="n">
+        <v>21.57333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>20.94333333333331</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>190</v>
       </c>
       <c r="G7" t="n">
+        <v>21.60666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>20.95999999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>6000</v>
       </c>
       <c r="G8" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>20.97666666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>860.6009</v>
       </c>
       <c r="G9" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="H9" t="n">
         <v>20.9933333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.9</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>479121.9287</v>
       </c>
       <c r="G10" t="n">
+        <v>21.78666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>21.0133333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.9</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>16984.6396</v>
       </c>
       <c r="G11" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="H11" t="n">
         <v>21.03499999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>281660.0196</v>
       </c>
       <c r="G12" t="n">
+        <v>21.91333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.05166666666663</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.2</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>70743.91099999999</v>
       </c>
       <c r="G13" t="n">
+        <v>21.98666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>21.0783333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.9</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,27 @@
         <v>10697.8839</v>
       </c>
       <c r="G14" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="H14" t="n">
         <v>21.10166666666663</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.6</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,27 @@
         <v>54516.1854</v>
       </c>
       <c r="G15" t="n">
+        <v>22.02666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>21.1183333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>50496.6756</v>
       </c>
       <c r="G16" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="H16" t="n">
         <v>21.13666666666663</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,27 @@
         <v>16615.7443</v>
       </c>
       <c r="G17" t="n">
+        <v>22.05333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>21.15499999999997</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1151,27 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="H18" t="n">
         <v>21.17666666666663</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1195,27 @@
         <v>197937.1963</v>
       </c>
       <c r="G19" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="H19" t="n">
         <v>21.19999999999997</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1239,27 @@
         <v>13744</v>
       </c>
       <c r="G20" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="H20" t="n">
         <v>21.22499999999997</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1283,27 @@
         <v>11942</v>
       </c>
       <c r="G21" t="n">
+        <v>22.13333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>21.24666666666664</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1327,27 @@
         <v>27384.7027</v>
       </c>
       <c r="G22" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="H22" t="n">
         <v>21.27333333333331</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.9</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1371,27 @@
         <v>11678.0556</v>
       </c>
       <c r="G23" t="n">
+        <v>22.14666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>21.29166666666664</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1415,27 @@
         <v>3420.6362</v>
       </c>
       <c r="G24" t="n">
+        <v>22.15333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>21.31666666666664</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1459,27 @@
         <v>10892.718</v>
       </c>
       <c r="G25" t="n">
+        <v>22.14666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>21.33999999999997</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1503,27 @@
         <v>1319.4233</v>
       </c>
       <c r="G26" t="n">
+        <v>22.13333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>21.36499999999997</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>22</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1547,27 @@
         <v>6000</v>
       </c>
       <c r="G27" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="H27" t="n">
         <v>21.3833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1591,27 @@
         <v>43623.4711</v>
       </c>
       <c r="G28" t="n">
+        <v>22.09333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>21.40166666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>22</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1635,27 @@
         <v>74158.0438</v>
       </c>
       <c r="G29" t="n">
+        <v>22.07333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>21.42999999999997</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>21.9</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1679,27 @@
         <v>16677.1339</v>
       </c>
       <c r="G30" t="n">
+        <v>22.08000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>21.4583333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1723,27 @@
         <v>79259.8328</v>
       </c>
       <c r="G31" t="n">
+        <v>22.08000000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>21.4883333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1767,27 @@
         <v>25597</v>
       </c>
       <c r="G32" t="n">
+        <v>22.08000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>21.51999999999996</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1811,27 @@
         <v>4000</v>
       </c>
       <c r="G33" t="n">
+        <v>22.06000000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>21.5533333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>22.1</v>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,22 +1855,27 @@
         <v>2000</v>
       </c>
       <c r="G34" t="n">
+        <v>22.03333333333335</v>
+      </c>
+      <c r="H34" t="n">
         <v>21.57499999999996</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.1</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1607,26 +1899,27 @@
         <v>211347.9949</v>
       </c>
       <c r="G35" t="n">
+        <v>22.04000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>21.59166666666663</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>22.1</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,26 +1943,27 @@
         <v>29987.2231</v>
       </c>
       <c r="G36" t="n">
+        <v>22.05333333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>21.61833333333329</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>22.1</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,22 +1987,27 @@
         <v>32842.3095</v>
       </c>
       <c r="G37" t="n">
+        <v>22.05333333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>21.64833333333329</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.1</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1732,26 +2031,27 @@
         <v>36745.3468</v>
       </c>
       <c r="G38" t="n">
+        <v>22.07333333333335</v>
+      </c>
+      <c r="H38" t="n">
         <v>21.67499999999996</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>22.1</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1775,24 +2075,27 @@
         <v>7793.3542</v>
       </c>
       <c r="G39" t="n">
+        <v>22.09333333333335</v>
+      </c>
+      <c r="H39" t="n">
         <v>21.70666666666662</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,24 +2119,27 @@
         <v>27912.2316</v>
       </c>
       <c r="G40" t="n">
+        <v>22.12000000000002</v>
+      </c>
+      <c r="H40" t="n">
         <v>21.73833333333329</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1857,24 +2163,27 @@
         <v>1068.9159</v>
       </c>
       <c r="G41" t="n">
+        <v>22.14000000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>21.77333333333329</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,24 +2207,27 @@
         <v>30518.5135</v>
       </c>
       <c r="G42" t="n">
+        <v>22.14666666666669</v>
+      </c>
+      <c r="H42" t="n">
         <v>21.80333333333329</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1939,24 +2251,27 @@
         <v>947.1876999999999</v>
       </c>
       <c r="G43" t="n">
+        <v>22.16000000000002</v>
+      </c>
+      <c r="H43" t="n">
         <v>21.82833333333329</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
         <v>22.1</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,24 +2295,27 @@
         <v>10846.4766</v>
       </c>
       <c r="G44" t="n">
+        <v>22.15333333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>21.84833333333329</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
         <v>22.1</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2021,26 +2339,27 @@
         <v>80182.038</v>
       </c>
       <c r="G45" t="n">
+        <v>22.15333333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>21.86999999999995</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>22</v>
       </c>
-      <c r="K45" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2064,26 +2383,27 @@
         <v>26000</v>
       </c>
       <c r="G46" t="n">
+        <v>22.15333333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>21.89166666666662</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.1</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2107,26 +2427,27 @@
         <v>36000</v>
       </c>
       <c r="G47" t="n">
+        <v>22.14666666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>21.91333333333329</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>22.1</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2150,26 +2471,27 @@
         <v>515.3112</v>
       </c>
       <c r="G48" t="n">
+        <v>22.14000000000002</v>
+      </c>
+      <c r="H48" t="n">
         <v>21.92833333333329</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>22</v>
       </c>
-      <c r="K48" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2193,26 +2515,27 @@
         <v>282333.0207</v>
       </c>
       <c r="G49" t="n">
+        <v>22.13333333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>21.94333333333329</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>22</v>
       </c>
-      <c r="K49" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,26 +2559,27 @@
         <v>204619.9518</v>
       </c>
       <c r="G50" t="n">
+        <v>22.13333333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>21.96166666666662</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>22</v>
       </c>
-      <c r="K50" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2279,26 +2603,27 @@
         <v>1884125.0325</v>
       </c>
       <c r="G51" t="n">
+        <v>22.24000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>21.99999999999995</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>22.1</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,24 +2647,25 @@
         <v>399564.8016</v>
       </c>
       <c r="G52" t="n">
+        <v>22.35333333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>22.03833333333329</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2363,24 +2689,25 @@
         <v>450083.8165</v>
       </c>
       <c r="G53" t="n">
+        <v>22.40666666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>22.07333333333328</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,24 +2731,25 @@
         <v>145376.1945</v>
       </c>
       <c r="G54" t="n">
+        <v>22.53333333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>22.12499999999995</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,24 +2773,25 @@
         <v>191700.9698115226</v>
       </c>
       <c r="G55" t="n">
+        <v>22.66000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>22.17833333333329</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2486,24 +2815,25 @@
         <v>10444.4476</v>
       </c>
       <c r="G56" t="n">
+        <v>22.75333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>22.22166666666662</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2527,24 +2857,25 @@
         <v>68855.629</v>
       </c>
       <c r="G57" t="n">
+        <v>22.88000000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>22.26999999999996</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,24 +2899,25 @@
         <v>52695.5496</v>
       </c>
       <c r="G58" t="n">
+        <v>22.99333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>22.30833333333329</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2609,24 +2941,25 @@
         <v>1123648.9476</v>
       </c>
       <c r="G59" t="n">
+        <v>23.10000000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>22.33666666666662</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,24 +2983,25 @@
         <v>649210.5178</v>
       </c>
       <c r="G60" t="n">
+        <v>23.19333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>22.36333333333329</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2691,24 +3025,25 @@
         <v>77059.8461</v>
       </c>
       <c r="G61" t="n">
+        <v>23.27333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>22.38666666666662</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,24 +3067,25 @@
         <v>401134.5986</v>
       </c>
       <c r="G62" t="n">
+        <v>23.32000000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>22.39999999999995</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,24 +3109,25 @@
         <v>422475.7496</v>
       </c>
       <c r="G63" t="n">
+        <v>23.38000000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>22.41499999999995</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,24 +3151,25 @@
         <v>229668.1414</v>
       </c>
       <c r="G64" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="H64" t="n">
         <v>22.44166666666662</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2855,24 +3193,25 @@
         <v>73574.7066</v>
       </c>
       <c r="G65" t="n">
+        <v>23.53333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>22.46166666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,24 +3235,25 @@
         <v>234579.6356</v>
       </c>
       <c r="G66" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H66" t="n">
         <v>22.48166666666662</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2937,24 +3277,25 @@
         <v>34935.1482</v>
       </c>
       <c r="G67" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="H67" t="n">
         <v>22.50666666666662</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,24 +3319,25 @@
         <v>96482.06789999999</v>
       </c>
       <c r="G68" t="n">
+        <v>23.53333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>22.53999999999996</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,24 +3361,25 @@
         <v>613123.7087520325</v>
       </c>
       <c r="G69" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="H69" t="n">
         <v>22.58999999999996</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,24 +3403,25 @@
         <v>5048.7327</v>
       </c>
       <c r="G70" t="n">
+        <v>23.60666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>22.63333333333329</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,24 +3445,25 @@
         <v>40215.305</v>
       </c>
       <c r="G71" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="H71" t="n">
         <v>22.66166666666663</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,24 +3487,25 @@
         <v>92229.48970000001</v>
       </c>
       <c r="G72" t="n">
+        <v>23.57999999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>22.68666666666662</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3183,24 +3529,25 @@
         <v>39369.4772</v>
       </c>
       <c r="G73" t="n">
+        <v>23.58666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>22.7083333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,24 +3571,25 @@
         <v>245492.7727</v>
       </c>
       <c r="G74" t="n">
+        <v>23.61999999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>22.73666666666663</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,24 +3613,25 @@
         <v>128624.013</v>
       </c>
       <c r="G75" t="n">
+        <v>23.69333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>22.77999999999996</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,24 +3655,25 @@
         <v>1299039.33317696</v>
       </c>
       <c r="G76" t="n">
+        <v>23.82666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>22.83333333333329</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,24 +3697,25 @@
         <v>355780.5972</v>
       </c>
       <c r="G77" t="n">
+        <v>23.95999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>22.87666666666663</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,24 +3739,25 @@
         <v>104273.1051</v>
       </c>
       <c r="G78" t="n">
+        <v>24.11333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>22.92333333333329</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3429,24 +3781,25 @@
         <v>158275.2437</v>
       </c>
       <c r="G79" t="n">
+        <v>24.26666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>22.97333333333329</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,24 +3823,25 @@
         <v>558628.6285</v>
       </c>
       <c r="G80" t="n">
+        <v>24.28666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>22.99833333333329</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,24 +3865,25 @@
         <v>98710.0196</v>
       </c>
       <c r="G81" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="H81" t="n">
         <v>23.03333333333329</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,24 +3907,25 @@
         <v>193791.966</v>
       </c>
       <c r="G82" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>23.07166666666663</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3593,24 +3949,25 @@
         <v>169464.7528</v>
       </c>
       <c r="G83" t="n">
+        <v>24.46666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>23.11999999999996</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,24 +3991,25 @@
         <v>272078.8712032258</v>
       </c>
       <c r="G84" t="n">
+        <v>24.42666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>23.1583333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,24 +4033,25 @@
         <v>542682.4578</v>
       </c>
       <c r="G85" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="H85" t="n">
         <v>23.19166666666663</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,24 +4075,25 @@
         <v>244729.6061</v>
       </c>
       <c r="G86" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="H86" t="n">
         <v>23.2133333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,24 +4117,25 @@
         <v>81626.71513083304</v>
       </c>
       <c r="G87" t="n">
+        <v>24.35333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>23.23999999999996</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,24 +4159,25 @@
         <v>83861.45940000001</v>
       </c>
       <c r="G88" t="n">
+        <v>24.32666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>23.26666666666663</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,24 +4201,25 @@
         <v>128073.7697</v>
       </c>
       <c r="G89" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H89" t="n">
         <v>23.29333333333329</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,24 +4243,25 @@
         <v>12451.2166</v>
       </c>
       <c r="G90" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="H90" t="n">
         <v>23.31999999999996</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,24 +4285,25 @@
         <v>167045.5317531915</v>
       </c>
       <c r="G91" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H91" t="n">
         <v>23.3383333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,24 +4327,25 @@
         <v>71389.7038</v>
       </c>
       <c r="G92" t="n">
+        <v>24</v>
+      </c>
+      <c r="H92" t="n">
         <v>23.35666666666663</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,24 +4369,25 @@
         <v>1231.6175</v>
       </c>
       <c r="G93" t="n">
+        <v>23.88666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>23.37999999999997</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,24 +4411,25 @@
         <v>336318.4207</v>
       </c>
       <c r="G94" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H94" t="n">
         <v>23.40499999999997</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,24 +4453,25 @@
         <v>53194.264</v>
       </c>
       <c r="G95" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H95" t="n">
         <v>23.4283333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,24 +4495,25 @@
         <v>24131.3702</v>
       </c>
       <c r="G96" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="H96" t="n">
         <v>23.44999999999997</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,24 +4537,25 @@
         <v>51027.7655</v>
       </c>
       <c r="G97" t="n">
+        <v>23.63333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>23.46666666666664</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,24 +4579,25 @@
         <v>460566.569</v>
       </c>
       <c r="G98" t="n">
+        <v>23.49333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>23.47499999999997</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,24 +4621,25 @@
         <v>70495.4954</v>
       </c>
       <c r="G99" t="n">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>23.48666666666664</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,24 +4663,25 @@
         <v>54494.78791163793</v>
       </c>
       <c r="G100" t="n">
+        <v>23.35333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>23.49999999999998</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,24 +4705,25 @@
         <v>235882.7133</v>
       </c>
       <c r="G101" t="n">
+        <v>23.34000000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>23.51333333333331</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,24 +4747,25 @@
         <v>88716.3049</v>
       </c>
       <c r="G102" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="H102" t="n">
         <v>23.52333333333331</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,24 +4789,25 @@
         <v>68917.52860000001</v>
       </c>
       <c r="G103" t="n">
+        <v>23.22666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>23.53333333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,24 +4831,25 @@
         <v>402352.4145</v>
       </c>
       <c r="G104" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="H104" t="n">
         <v>23.54499999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,24 +4873,25 @@
         <v>347897.9612222707</v>
       </c>
       <c r="G105" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H105" t="n">
         <v>23.55666666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,24 +4915,25 @@
         <v>164754.1013</v>
       </c>
       <c r="G106" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H106" t="n">
         <v>23.57499999999998</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,24 +4957,25 @@
         <v>25395.636</v>
       </c>
       <c r="G107" t="n">
+        <v>23.10666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>23.59666666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,24 +4999,25 @@
         <v>27761.3876</v>
       </c>
       <c r="G108" t="n">
+        <v>23.08666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>23.61666666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,24 +5041,25 @@
         <v>53588.7344</v>
       </c>
       <c r="G109" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="H109" t="n">
         <v>23.63666666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,24 +5083,25 @@
         <v>349468.4397</v>
       </c>
       <c r="G110" t="n">
+        <v>23.03333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>23.65333333333331</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,24 +5125,25 @@
         <v>201339.4567</v>
       </c>
       <c r="G111" t="n">
+        <v>23.02666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>23.64666666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,24 +5167,25 @@
         <v>569585.6309588983</v>
       </c>
       <c r="G112" t="n">
+        <v>23.07333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>23.64666666666665</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,24 +5209,25 @@
         <v>555958.7184</v>
       </c>
       <c r="G113" t="n">
+        <v>23.12666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>23.65499999999998</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,24 +5251,25 @@
         <v>205984.3371</v>
       </c>
       <c r="G114" t="n">
+        <v>23.19333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>23.65166666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4905,24 +5293,25 @@
         <v>236017.8122360656</v>
       </c>
       <c r="G115" t="n">
+        <v>23.27333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>23.65333333333331</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,24 +5335,25 @@
         <v>454085.4949639344</v>
       </c>
       <c r="G116" t="n">
+        <v>23.39333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>23.67333333333331</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,24 +5377,25 @@
         <v>356390.7349</v>
       </c>
       <c r="G117" t="n">
+        <v>23.52666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>23.68499999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,24 +5419,25 @@
         <v>217913.6497</v>
       </c>
       <c r="G118" t="n">
+        <v>23.68666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>23.70666666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,24 +5461,25 @@
         <v>453559.2683</v>
       </c>
       <c r="G119" t="n">
+        <v>23.86666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>23.73666666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,24 +5503,25 @@
         <v>584866.0524</v>
       </c>
       <c r="G120" t="n">
+        <v>24.08666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>23.77999999999998</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5151,24 +5545,25 @@
         <v>393205.8108</v>
       </c>
       <c r="G121" t="n">
+        <v>24.28666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>23.82833333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,24 +5587,25 @@
         <v>430523.9077230769</v>
       </c>
       <c r="G122" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="H122" t="n">
         <v>23.88666666666665</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,24 +5629,25 @@
         <v>286053.4449484496</v>
       </c>
       <c r="G123" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="H123" t="n">
         <v>23.93166666666665</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,24 +5671,25 @@
         <v>214675.0719515504</v>
       </c>
       <c r="G124" t="n">
+        <v>24.81333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>23.97499999999998</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5315,24 +5713,25 @@
         <v>58966.13765271318</v>
       </c>
       <c r="G125" t="n">
+        <v>25.00666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>24.02166666666665</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,24 +5755,25 @@
         <v>467212.7742484496</v>
       </c>
       <c r="G126" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="H126" t="n">
         <v>24.04166666666665</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5397,24 +5797,25 @@
         <v>82602.67329999999</v>
       </c>
       <c r="G127" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="H127" t="n">
         <v>24.06166666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,24 +5839,25 @@
         <v>163648.1343111554</v>
       </c>
       <c r="G128" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="H128" t="n">
         <v>24.08166666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,24 +5881,25 @@
         <v>305097.8363</v>
       </c>
       <c r="G129" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="H129" t="n">
         <v>24.07166666666664</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,24 +5923,25 @@
         <v>102750.8154</v>
       </c>
       <c r="G130" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H130" t="n">
         <v>24.07666666666664</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,24 +5965,25 @@
         <v>246343.0295754864</v>
       </c>
       <c r="G131" t="n">
+        <v>25.28666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>24.08999999999997</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,24 +6007,25 @@
         <v>280093.9922902829</v>
       </c>
       <c r="G132" t="n">
+        <v>25.34000000000001</v>
+      </c>
+      <c r="H132" t="n">
         <v>24.12499999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5643,24 +6049,25 @@
         <v>172924.6945</v>
       </c>
       <c r="G133" t="n">
+        <v>25.33333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>24.14333333333331</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,24 +6091,25 @@
         <v>465961.06</v>
       </c>
       <c r="G134" t="n">
+        <v>25.23333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>24.13999999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5725,24 +6133,25 @@
         <v>30662.3304</v>
       </c>
       <c r="G135" t="n">
+        <v>25.09333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>24.12999999999998</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,24 +6175,25 @@
         <v>67556.3864</v>
       </c>
       <c r="G136" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="H136" t="n">
         <v>24.10666666666664</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5807,24 +6217,25 @@
         <v>653595.6388</v>
       </c>
       <c r="G137" t="n">
+        <v>24.80666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>24.09833333333331</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,24 +6259,25 @@
         <v>360049.8468164658</v>
       </c>
       <c r="G138" t="n">
+        <v>24.73333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>24.08666666666664</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,24 +6301,25 @@
         <v>170476.9583695341</v>
       </c>
       <c r="G139" t="n">
+        <v>24.64666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>24.06999999999998</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5930,24 +6343,25 @@
         <v>92647.3527</v>
       </c>
       <c r="G140" t="n">
+        <v>24.54666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>24.08666666666664</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5971,24 +6385,25 @@
         <v>37407.9423</v>
       </c>
       <c r="G141" t="n">
+        <v>24.54666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>24.09333333333331</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,24 +6427,25 @@
         <v>523144.8132</v>
       </c>
       <c r="G142" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H142" t="n">
         <v>24.08666666666664</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6053,24 +6469,25 @@
         <v>118908.3741</v>
       </c>
       <c r="G143" t="n">
+        <v>24.41333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>24.06833333333331</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,24 +6511,25 @@
         <v>48120.7478</v>
       </c>
       <c r="G144" t="n">
+        <v>24.36666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>24.05666666666664</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,24 +6553,25 @@
         <v>180835.5352</v>
       </c>
       <c r="G145" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="H145" t="n">
         <v>24.05166666666664</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,24 +6595,25 @@
         <v>110368.9075</v>
       </c>
       <c r="G146" t="n">
+        <v>24.21333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>24.05833333333331</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6217,24 +6637,25 @@
         <v>259599.063</v>
       </c>
       <c r="G147" t="n">
+        <v>24.07333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>24.05499999999998</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,24 +6679,25 @@
         <v>97135.13250000001</v>
       </c>
       <c r="G148" t="n">
+        <v>23.96666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>24.05333333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6299,24 +6721,25 @@
         <v>71402.9215</v>
       </c>
       <c r="G149" t="n">
+        <v>23.93333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>24.04833333333331</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,24 +6763,25 @@
         <v>64069.7515</v>
       </c>
       <c r="G150" t="n">
+        <v>23.89333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>24.04333333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,24 +6805,25 @@
         <v>67775.74280000001</v>
       </c>
       <c r="G151" t="n">
+        <v>23.86666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>24.04833333333331</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,24 +6847,25 @@
         <v>193877.656</v>
       </c>
       <c r="G152" t="n">
+        <v>23.81333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>24.05166666666665</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,24 +6889,25 @@
         <v>40381.0015</v>
       </c>
       <c r="G153" t="n">
+        <v>23.73999999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>24.04999999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,24 +6931,25 @@
         <v>39110.0718</v>
       </c>
       <c r="G154" t="n">
+        <v>23.68666666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>24.05166666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,24 +6973,25 @@
         <v>108542.28</v>
       </c>
       <c r="G155" t="n">
+        <v>23.61999999999999</v>
+      </c>
+      <c r="H155" t="n">
         <v>24.05166666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6586,24 +7015,25 @@
         <v>55609.9465</v>
       </c>
       <c r="G156" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="H156" t="n">
         <v>24.05333333333332</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,24 +7057,25 @@
         <v>4556</v>
       </c>
       <c r="G157" t="n">
+        <v>23.52666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>24.05999999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,24 +7099,25 @@
         <v>60301.2092</v>
       </c>
       <c r="G158" t="n">
+        <v>23.50666666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>24.07166666666665</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,24 +7141,25 @@
         <v>152042.9764</v>
       </c>
       <c r="G159" t="n">
+        <v>23.49999999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>24.07999999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6750,24 +7183,25 @@
         <v>374168.9824</v>
       </c>
       <c r="G160" t="n">
+        <v>23.48666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>24.08499999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6791,24 +7225,25 @@
         <v>87129.1339</v>
       </c>
       <c r="G161" t="n">
+        <v>23.43333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>24.08166666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,24 +7267,25 @@
         <v>64064.7146</v>
       </c>
       <c r="G162" t="n">
+        <v>23.41999999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>24.08999999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,24 +7309,25 @@
         <v>11</v>
       </c>
       <c r="G163" t="n">
+        <v>23.43999999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>24.10666666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6914,24 +7351,25 @@
         <v>11497.3006</v>
       </c>
       <c r="G164" t="n">
+        <v>23.44666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>24.11999999999999</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6955,24 +7393,25 @@
         <v>99141.3413</v>
       </c>
       <c r="G165" t="n">
+        <v>23.44666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>24.12999999999999</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,24 +7435,25 @@
         <v>247914.4648</v>
       </c>
       <c r="G166" t="n">
+        <v>23.44666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>24.13499999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7037,24 +7477,25 @@
         <v>155957.0488</v>
       </c>
       <c r="G167" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="H167" t="n">
         <v>24.13999999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,24 +7519,25 @@
         <v>132608.7745</v>
       </c>
       <c r="G168" t="n">
+        <v>23.45333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>24.14166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,24 +7561,25 @@
         <v>93756.5601</v>
       </c>
       <c r="G169" t="n">
+        <v>23.43333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>24.14499999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7160,24 +7603,25 @@
         <v>238255.1333</v>
       </c>
       <c r="G170" t="n">
+        <v>23.45333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>24.15666666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7201,24 +7645,25 @@
         <v>186473.8851</v>
       </c>
       <c r="G171" t="n">
+        <v>23.51333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>24.17499999999999</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7242,24 +7687,25 @@
         <v>215965.1939</v>
       </c>
       <c r="G172" t="n">
+        <v>23.57333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>24.185</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7283,24 +7729,25 @@
         <v>470666.5483</v>
       </c>
       <c r="G173" t="n">
+        <v>23.65333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>24.20333333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,24 +7771,25 @@
         <v>518643.2057</v>
       </c>
       <c r="G174" t="n">
+        <v>23.73333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>24.215</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7365,24 +7813,25 @@
         <v>190026.900614</v>
       </c>
       <c r="G175" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="H175" t="n">
         <v>24.23166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7406,24 +7855,25 @@
         <v>1454280.8581</v>
       </c>
       <c r="G176" t="n">
+        <v>24.15333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>24.27166666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,24 +7897,25 @@
         <v>1419413.1311</v>
       </c>
       <c r="G177" t="n">
+        <v>24.38666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>24.305</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,24 +7939,25 @@
         <v>1356740.482271434</v>
       </c>
       <c r="G178" t="n">
+        <v>24.64666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>24.34666666666666</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,25 +7981,26 @@
         <v>629395.8498647059</v>
       </c>
       <c r="G179" t="n">
+        <v>24.89333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>24.37666666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1.225769230769231</v>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -7570,18 +8023,25 @@
         <v>119065.0288352941</v>
       </c>
       <c r="G180" t="n">
+        <v>25.11333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>24.38666666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7605,18 +8065,25 @@
         <v>866553.8328647059</v>
       </c>
       <c r="G181" t="n">
+        <v>25.29333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>24.38666666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7640,18 +8107,25 @@
         <v>454491.5853458015</v>
       </c>
       <c r="G182" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="H182" t="n">
         <v>24.38499999999999</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7675,18 +8149,25 @@
         <v>154276.5522</v>
       </c>
       <c r="G183" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="H183" t="n">
         <v>24.39166666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7710,18 +8191,25 @@
         <v>239619.6772541985</v>
       </c>
       <c r="G184" t="n">
+        <v>25.87333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>24.41</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7745,18 +8233,25 @@
         <v>282437.4746</v>
       </c>
       <c r="G185" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="H185" t="n">
         <v>24.415</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7780,18 +8275,25 @@
         <v>394607.1012</v>
       </c>
       <c r="G186" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="H186" t="n">
         <v>24.47</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7815,18 +8317,25 @@
         <v>345082.9414263699</v>
       </c>
       <c r="G187" t="n">
+        <v>26.56666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>24.54166666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7850,18 +8359,25 @@
         <v>1767685.195333981</v>
       </c>
       <c r="G188" t="n">
+        <v>27.10666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>24.67</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7885,18 +8401,25 @@
         <v>735768.4752314024</v>
       </c>
       <c r="G189" t="n">
+        <v>27.62666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>24.80666666666666</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7920,18 +8443,419 @@
         <v>768073.3396832298</v>
       </c>
       <c r="G190" t="n">
+        <v>28.05333333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>24.92</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E191" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>612466.9216999999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>28.39333333333333</v>
+      </c>
+      <c r="H191" t="n">
+        <v>25.04833333333333</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>32</v>
+      </c>
+      <c r="C192" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F192" t="n">
+        <v>912392.5624975062</v>
+      </c>
+      <c r="G192" t="n">
+        <v>28.86666666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>25.18666666666666</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>37</v>
+      </c>
+      <c r="E193" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1696988.82765971</v>
+      </c>
+      <c r="G193" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="H193" t="n">
+        <v>25.38333333333333</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>37</v>
+      </c>
+      <c r="E194" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1595393.162678301</v>
+      </c>
+      <c r="G194" t="n">
+        <v>29.95333333333334</v>
+      </c>
+      <c r="H194" t="n">
+        <v>25.55666666666666</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D195" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>33</v>
+      </c>
+      <c r="F195" t="n">
+        <v>979149.7104470588</v>
+      </c>
+      <c r="G195" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H195" t="n">
+        <v>25.71333333333333</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>32</v>
+      </c>
+      <c r="D196" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E196" t="n">
+        <v>32</v>
+      </c>
+      <c r="F196" t="n">
+        <v>942504.6077000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>30.78666666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>25.84833333333333</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1385503.3487</v>
+      </c>
+      <c r="G197" t="n">
+        <v>31.16666666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>25.97499999999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D198" t="n">
+        <v>32</v>
+      </c>
+      <c r="E198" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1047384.5403</v>
+      </c>
+      <c r="G198" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="H198" t="n">
+        <v>26.07833333333333</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C199" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1087858.4337</v>
+      </c>
+      <c r="G199" t="n">
+        <v>31.66000000000001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>26.16333333333332</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>30</v>
+      </c>
+      <c r="C200" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>30</v>
+      </c>
+      <c r="E200" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1026126.88721761</v>
+      </c>
+      <c r="G200" t="n">
+        <v>31.76666666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>26.21999999999999</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N258"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-38872.41916635515</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-38894.36416635515</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>-38894.36416635515</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>-38894.36416635515</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +583,15 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>21</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +616,15 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>21</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +649,15 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>21</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +682,15 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,26 +715,15 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,26 +748,15 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +781,15 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>21</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,26 +814,15 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>21</v>
-      </c>
-      <c r="K13" t="n">
-        <v>21</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,26 +847,15 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>21</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +880,15 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>21</v>
-      </c>
-      <c r="K15" t="n">
-        <v>21</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,26 +913,15 @@
         <v>-62099.80066635515</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>21</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,26 +946,15 @@
         <v>-62099.80066635515</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>21</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,26 +979,15 @@
         <v>-136942.5764663552</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>21</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,26 +1012,15 @@
         <v>-113560.9391663552</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>21</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,26 +1045,19 @@
         <v>-113593.2609663552</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J20" t="n">
         <v>20.6</v>
       </c>
-      <c r="K20" t="n">
-        <v>21</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1264,26 +1082,23 @@
         <v>-113084.8877663552</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="J21" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>20.6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1308,26 +1123,23 @@
         <v>-113593.2609663552</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="J22" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>21</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>20.6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,26 +1164,19 @@
         <v>-113094.2609663552</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="J23" t="n">
         <v>20.5</v>
       </c>
-      <c r="K23" t="n">
-        <v>21</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,26 +1201,23 @@
         <v>-113417.5659663551</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J24" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>21</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1440,26 +1242,23 @@
         <v>-100679.5659663551</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="J25" t="n">
         <v>20.5</v>
       </c>
-      <c r="K25" t="n">
-        <v>21</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,26 +1283,23 @@
         <v>-100779.5659663551</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="J26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>21</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1528,26 +1324,23 @@
         <v>-100920.4036663552</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J27" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>21</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1572,26 +1365,23 @@
         <v>-100920.4036663552</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="J28" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>21</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1616,26 +1406,23 @@
         <v>-104008.4036663552</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="J29" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>21</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1660,26 +1447,23 @@
         <v>-112736.9853663551</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="J30" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>21</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1704,26 +1488,23 @@
         <v>-375038.1930663552</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="J31" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>21</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1748,26 +1529,23 @@
         <v>-374982.1930663552</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="J32" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>21</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1792,26 +1570,23 @@
         <v>-306927.1930663552</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J33" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>21</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1836,26 +1611,23 @@
         <v>-315982.3881663552</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="J34" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>21</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1880,26 +1652,23 @@
         <v>-316017.7400663552</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="J35" t="n">
         <v>20.5</v>
       </c>
-      <c r="K35" t="n">
-        <v>21</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1924,26 +1693,23 @@
         <v>-315966.7739663552</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="J36" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>21</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1968,26 +1734,23 @@
         <v>-321651.5241663552</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="J37" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>21</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2012,26 +1775,23 @@
         <v>-315966.7739663552</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="J38" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>21</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2056,26 +1816,23 @@
         <v>-353108.6207663552</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="J39" t="n">
         <v>20.5</v>
       </c>
-      <c r="K39" t="n">
-        <v>21</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2100,26 +1857,23 @@
         <v>-347105.6207663552</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="J40" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>21</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2144,26 +1898,23 @@
         <v>-311638.4628663552</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="J41" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>21</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2188,26 +1939,23 @@
         <v>-174541.1319663552</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J42" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>21</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2232,26 +1980,23 @@
         <v>-174541.1319663552</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J43" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>21</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2276,26 +2021,23 @@
         <v>-174541.1319663552</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J44" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>21</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2320,26 +2062,23 @@
         <v>-175675.1319663552</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J45" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>21</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2364,26 +2103,23 @@
         <v>17184.2148336448</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="J46" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>21</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2408,26 +2144,23 @@
         <v>17184.2148336448</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="J47" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>21</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2452,26 +2185,23 @@
         <v>2538.982833644801</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="J48" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>21</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2496,26 +2226,21 @@
         <v>5576.281733644801</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>21</v>
-      </c>
-      <c r="K49" t="n">
-        <v>21</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2540,26 +2265,21 @@
         <v>5592.262933644801</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>21</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2584,26 +2304,21 @@
         <v>-2826.737066355199</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>21</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2628,26 +2343,21 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>21</v>
-      </c>
-      <c r="K52" t="n">
-        <v>21</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2672,26 +2382,21 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>21</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2716,26 +2421,21 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>21</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2760,26 +2460,21 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>21</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2804,26 +2499,21 @@
         <v>159086.2995336448</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>21</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>20.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2850,22 +2540,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>21</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2892,22 +2579,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>21</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2934,22 +2618,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>21</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2976,22 +2657,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>21</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3018,22 +2696,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>21</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3060,22 +2735,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>21</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3102,22 +2774,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>21</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3144,22 +2813,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>21</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3186,22 +2852,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>21</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3228,22 +2891,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>21</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3270,22 +2930,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>21</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3312,22 +2969,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>21</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3354,22 +3008,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>21</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3396,22 +3047,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>21</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3438,22 +3086,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>21</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3480,22 +3125,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>21</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3522,22 +3164,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>21</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3564,22 +3203,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>21</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3606,22 +3242,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>21</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3648,22 +3281,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>21</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3690,22 +3320,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>21</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3732,22 +3359,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>21</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3774,22 +3398,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>21</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3816,22 +3437,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>21</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3858,22 +3476,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>21</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3900,22 +3515,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>21</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3942,22 +3554,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>21</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3984,22 +3593,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>21</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4026,22 +3632,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>21</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4068,22 +3671,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>21</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4110,22 +3710,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>21</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4152,22 +3749,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>21</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4194,22 +3788,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>21</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4236,22 +3827,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>21</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4278,22 +3866,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>21</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4320,22 +3905,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>21</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4362,22 +3944,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>21</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4404,22 +3983,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>21</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4446,22 +4022,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>21</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4488,22 +4061,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>21</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4530,22 +4100,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>21</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4572,22 +4139,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>21</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4614,22 +4178,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>21</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4656,22 +4217,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>21</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4698,22 +4256,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>21</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4740,22 +4295,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>21</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4782,22 +4334,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>21</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4824,22 +4373,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>21</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4866,22 +4412,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>21</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4908,22 +4451,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>21</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4950,22 +4490,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>21</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4992,22 +4529,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>21</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5034,22 +4568,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>21</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5076,22 +4607,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>21</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5118,22 +4646,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>21</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5160,22 +4685,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>21</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5202,22 +4724,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>21</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5244,22 +4763,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>21</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5286,22 +4802,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>21</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5328,22 +4841,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>21</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5370,22 +4880,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>21</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5412,22 +4919,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>21</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5454,22 +4958,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>21</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5496,22 +4997,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>21</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5538,22 +5036,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>21</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5580,22 +5075,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>21</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5622,22 +5114,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>21</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5664,22 +5153,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>21</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5706,22 +5192,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>21</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5748,22 +5231,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>21</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5790,22 +5270,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>21</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5832,22 +5309,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>21</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5874,22 +5348,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>21</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5916,22 +5387,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>21</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5958,22 +5426,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>21</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6000,22 +5465,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>21</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6042,22 +5504,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>21</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6084,22 +5543,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>21</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6126,22 +5582,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>21</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6168,22 +5621,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>21</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6210,22 +5660,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>21</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6252,22 +5699,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>21</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6294,22 +5738,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>21</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6336,22 +5777,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>21</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6378,22 +5816,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>21</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6420,22 +5855,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>21</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6462,22 +5894,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>21</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6504,22 +5933,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>21</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6546,22 +5972,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>21</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6588,22 +6011,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>21</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6630,22 +6050,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>21</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6672,22 +6089,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>21</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6714,22 +6128,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>21</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6756,22 +6167,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>21</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6798,22 +6206,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>21</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6840,22 +6245,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>21</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6882,22 +6284,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>21</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6924,22 +6323,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>21</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6966,22 +6362,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>21</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7008,22 +6401,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>21</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7050,22 +6440,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>21</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7092,22 +6479,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>21</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7134,22 +6518,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>21</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7176,22 +6557,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>21</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7218,22 +6596,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>21</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7260,22 +6635,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>21</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7302,22 +6674,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>21</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7344,22 +6713,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>21</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7386,22 +6752,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>21</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7428,22 +6791,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>21</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7470,22 +6830,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>21</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7512,22 +6869,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>21</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7554,22 +6908,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>21</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7596,22 +6947,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>21</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7638,22 +6986,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>21</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7680,22 +7025,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>21</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7722,22 +7064,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>21</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7764,22 +7103,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>21</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7806,22 +7142,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>21</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7848,22 +7181,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>21</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7890,22 +7220,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>21</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7932,22 +7259,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>21</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7974,22 +7298,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>21</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -8016,22 +7337,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>21</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8058,22 +7376,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>21</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8100,22 +7415,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>21</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8142,22 +7454,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>21</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8184,22 +7493,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>21</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8226,22 +7532,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>21</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8268,22 +7571,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>21</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8310,22 +7610,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>21</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8352,22 +7649,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>21</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8394,22 +7688,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>21</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8436,22 +7727,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>21</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8478,22 +7766,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>21</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8520,22 +7805,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>21</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8562,22 +7844,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>21</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8604,22 +7883,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>21</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8646,22 +7922,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>21</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8688,22 +7961,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>21</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8730,22 +8000,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>21</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8772,22 +8039,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>21</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8814,22 +8078,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>21</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8856,22 +8117,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>21</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8898,22 +8156,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>21</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8940,22 +8195,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>21</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8982,22 +8234,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>21</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -9024,22 +8273,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>21</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9066,22 +8312,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>21</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9108,22 +8351,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>21</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9150,22 +8390,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>21</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9192,22 +8429,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>21</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9234,22 +8468,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>21</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9276,22 +8507,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>21</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9318,22 +8546,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>21</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9360,22 +8585,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>21</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9402,22 +8624,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>21</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9444,22 +8663,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>21</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9486,22 +8702,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>21</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9528,22 +8741,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>21</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9570,22 +8780,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>21</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9612,22 +8819,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>21</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9654,22 +8858,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>21</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9696,22 +8897,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>21</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9738,22 +8936,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>21</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9780,22 +8975,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>21</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9822,22 +9014,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>21</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9864,22 +9053,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>21</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9906,22 +9092,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>21</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9948,22 +9131,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>21</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9990,22 +9170,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>21</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10032,22 +9209,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>21</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10074,22 +9248,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>21</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10116,22 +9287,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>21</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10158,22 +9326,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>21</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10200,22 +9365,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>21</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10242,22 +9404,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>21</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10284,22 +9443,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>21</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10326,22 +9482,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>21</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10366,24 +9519,23 @@
         <v>6420799.612576597</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>21</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1.341341463414634</v>
       </c>
       <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>1.034146341463415</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10408,24 +9560,15 @@
         <v>5791403.762711892</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>21</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10450,24 +9593,15 @@
         <v>5672338.733876598</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>21</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10492,24 +9626,15 @@
         <v>4805784.901011892</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>21</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10534,24 +9659,15 @@
         <v>4351293.31566609</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>21</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10576,24 +9692,15 @@
         <v>4197016.76346609</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>21</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10620,22 +9727,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>21</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10662,22 +9760,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>21</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10704,22 +9793,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>21</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10746,22 +9826,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>21</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10788,22 +9859,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>21</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10828,24 +9890,15 @@
         <v>5925805.728849237</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>21</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10870,24 +9923,15 @@
         <v>5157732.389166007</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>21</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10912,24 +9956,15 @@
         <v>5770199.310866007</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>21</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10954,24 +9989,15 @@
         <v>6682591.873363513</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>21</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10996,24 +10022,15 @@
         <v>8379580.701023223</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>21</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -11040,24 +10057,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>21</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1.628333333333333</v>
-      </c>
-      <c r="N252" t="n">
-        <v>1.014354066985646</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11082,18 +10088,15 @@
         <v>5805037.827897863</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11118,18 +10121,15 @@
         <v>4862533.220197862</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11154,18 +10154,15 @@
         <v>3477029.871497862</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11192,16 +10189,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11228,16 +10222,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11262,20 +10253,17 @@
         <v>315660.0102802521</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-38872.41916635515</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-38894.36416635515</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21.2</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-38894.36416635515</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-38894.36416635515</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.9</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-62254.00166635515</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +960,14 @@
         <v>-62157.80066635515</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>21</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +997,19 @@
         <v>-62099.80066635515</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,19 @@
         <v>-62099.80066635515</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1079,19 @@
         <v>-136942.5764663552</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>21</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1120,19 @@
         <v>-113560.9391663552</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,15 +1161,19 @@
         <v>-113593.2609663552</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>20.6</v>
       </c>
       <c r="J20" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,17 +1202,17 @@
         <v>-113084.8877663552</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>20.5</v>
       </c>
       <c r="J21" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1123,17 +1243,17 @@
         <v>-113593.2609663552</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>20.9</v>
       </c>
       <c r="J22" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1164,15 +1284,19 @@
         <v>-113094.2609663552</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>20.5</v>
       </c>
       <c r="J23" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1201,17 +1325,17 @@
         <v>-113417.5659663551</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>20.6</v>
       </c>
       <c r="J24" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1242,17 +1366,17 @@
         <v>-100679.5659663551</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>20.5</v>
       </c>
       <c r="J25" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1283,13 +1407,13 @@
         <v>-100779.5659663551</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>20.9</v>
       </c>
       <c r="J26" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1324,13 +1448,13 @@
         <v>-100920.4036663552</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>20.8</v>
       </c>
       <c r="J27" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1365,13 +1489,13 @@
         <v>-100920.4036663552</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>20.4</v>
       </c>
       <c r="J28" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1406,13 +1530,13 @@
         <v>-104008.4036663552</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>20.4</v>
       </c>
       <c r="J29" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1447,13 +1571,13 @@
         <v>-112736.9853663551</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>20.3</v>
       </c>
       <c r="J30" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1488,13 +1612,13 @@
         <v>-375038.1930663552</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>20.2</v>
       </c>
       <c r="J31" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1529,13 +1653,13 @@
         <v>-374982.1930663552</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>20.1</v>
       </c>
       <c r="J32" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1570,13 +1694,13 @@
         <v>-306927.1930663552</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>20.8</v>
       </c>
       <c r="J33" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1611,13 +1735,13 @@
         <v>-315982.3881663552</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>21.1</v>
       </c>
       <c r="J34" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1652,13 +1776,13 @@
         <v>-316017.7400663552</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>20.5</v>
       </c>
       <c r="J35" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1693,13 +1817,13 @@
         <v>-315966.7739663552</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>20.3</v>
       </c>
       <c r="J36" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1734,13 +1858,13 @@
         <v>-321651.5241663552</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>20.7</v>
       </c>
       <c r="J37" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1775,13 +1899,13 @@
         <v>-315966.7739663552</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>20.4</v>
       </c>
       <c r="J38" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1816,13 +1940,13 @@
         <v>-353108.6207663552</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>20.5</v>
       </c>
       <c r="J39" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1857,13 +1981,13 @@
         <v>-347105.6207663552</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>20.2</v>
       </c>
       <c r="J40" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1898,13 +2022,13 @@
         <v>-311638.4628663552</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>20.3</v>
       </c>
       <c r="J41" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1939,13 +2063,13 @@
         <v>-174541.1319663552</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>20.6</v>
       </c>
       <c r="J42" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1980,13 +2104,13 @@
         <v>-174541.1319663552</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>20.8</v>
       </c>
       <c r="J43" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2021,13 +2145,13 @@
         <v>-174541.1319663552</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>20.8</v>
       </c>
       <c r="J44" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2062,13 +2186,13 @@
         <v>-175675.1319663552</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>20.8</v>
       </c>
       <c r="J45" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2103,13 +2227,13 @@
         <v>17184.2148336448</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>20.7</v>
       </c>
       <c r="J46" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2144,13 +2268,13 @@
         <v>17184.2148336448</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>21.1</v>
       </c>
       <c r="J47" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2185,13 +2309,13 @@
         <v>2538.982833644801</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>21.1</v>
       </c>
       <c r="J48" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2226,11 +2350,13 @@
         <v>5576.281733644801</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>21</v>
+      </c>
       <c r="J49" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2265,11 +2391,13 @@
         <v>5592.262933644801</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J50" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2304,11 +2432,13 @@
         <v>-2826.737066355199</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21.5</v>
+      </c>
       <c r="J51" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2343,11 +2473,13 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
       <c r="J52" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2382,11 +2514,13 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J53" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2421,11 +2555,13 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J54" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2460,11 +2596,13 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J55" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2499,11 +2637,13 @@
         <v>159086.2995336448</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J56" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2538,11 +2678,13 @@
         <v>222191.8929336448</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21.5</v>
+      </c>
       <c r="J57" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2581,7 +2723,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2620,7 +2762,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2659,7 +2801,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2698,7 +2840,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2737,7 +2879,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2776,7 +2918,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2815,7 +2957,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2854,7 +2996,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2893,7 +3035,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2932,7 +3074,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2971,7 +3113,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3010,7 +3152,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3049,7 +3191,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3088,7 +3230,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3127,7 +3269,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3166,7 +3308,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3205,7 +3347,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3244,7 +3386,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3283,7 +3425,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3322,7 +3464,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3361,7 +3503,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3400,7 +3542,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3439,7 +3581,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3478,7 +3620,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3517,7 +3659,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3556,7 +3698,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3595,7 +3737,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3634,7 +3776,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3673,7 +3815,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3712,7 +3854,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3751,7 +3893,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3790,7 +3932,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3829,7 +3971,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3868,7 +4010,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3907,7 +4049,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3946,7 +4088,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3985,7 +4127,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4024,7 +4166,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4063,7 +4205,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4102,7 +4244,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4141,7 +4283,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4180,7 +4322,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4219,7 +4361,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4258,7 +4400,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4297,7 +4439,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4336,7 +4478,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4375,7 +4517,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4414,7 +4556,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4453,7 +4595,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4492,7 +4634,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4531,7 +4673,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4570,7 +4712,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4609,7 +4751,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4648,7 +4790,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4687,7 +4829,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4726,7 +4868,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4765,7 +4907,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4804,7 +4946,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4843,7 +4985,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4882,7 +5024,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4921,7 +5063,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4960,7 +5102,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4999,7 +5141,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5038,7 +5180,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5077,7 +5219,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5116,7 +5258,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5155,7 +5297,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5194,7 +5336,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5233,7 +5375,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5272,7 +5414,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5311,7 +5453,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5350,7 +5492,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5389,7 +5531,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5428,7 +5570,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5467,7 +5609,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5506,7 +5648,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5545,7 +5687,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5584,7 +5726,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5623,7 +5765,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5662,7 +5804,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5701,7 +5843,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5740,7 +5882,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5779,7 +5921,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5818,7 +5960,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5857,7 +5999,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5896,7 +6038,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5935,7 +6077,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5974,7 +6116,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6013,7 +6155,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6052,7 +6194,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6091,7 +6233,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6130,7 +6272,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6169,7 +6311,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6208,7 +6350,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6247,7 +6389,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6286,7 +6428,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6325,7 +6467,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6364,7 +6506,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6403,7 +6545,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6442,7 +6584,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6481,7 +6623,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6520,7 +6662,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6559,7 +6701,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6598,7 +6740,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6637,7 +6779,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6676,7 +6818,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6715,7 +6857,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6754,7 +6896,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6793,7 +6935,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6832,7 +6974,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6871,7 +7013,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6910,7 +7052,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6949,7 +7091,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6988,7 +7130,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7027,7 +7169,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7066,7 +7208,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7105,7 +7247,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7144,7 +7286,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7183,7 +7325,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7222,7 +7364,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7261,7 +7403,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7300,7 +7442,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7339,7 +7481,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7378,7 +7520,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7417,7 +7559,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7456,7 +7598,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7495,7 +7637,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7534,7 +7676,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7573,7 +7715,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7612,7 +7754,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7651,7 +7793,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7690,7 +7832,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7729,7 +7871,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7768,7 +7910,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7807,7 +7949,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7846,7 +7988,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7885,7 +8027,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7924,7 +8066,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7963,7 +8105,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8002,7 +8144,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8041,7 +8183,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8080,7 +8222,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8119,7 +8261,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8158,7 +8300,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8197,7 +8339,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8236,7 +8378,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8275,7 +8417,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8314,7 +8456,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8353,7 +8495,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8392,7 +8534,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8431,7 +8573,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8470,7 +8612,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8509,7 +8651,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8548,7 +8690,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8587,7 +8729,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8626,7 +8768,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8665,7 +8807,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8704,7 +8846,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8743,7 +8885,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8782,7 +8924,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8821,7 +8963,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8860,7 +9002,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8899,7 +9041,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8938,7 +9080,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8977,7 +9119,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9016,7 +9158,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9055,7 +9197,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9094,7 +9236,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9133,7 +9275,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9172,7 +9314,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9211,7 +9353,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9250,7 +9392,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9289,7 +9431,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9328,7 +9470,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9367,7 +9509,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9406,7 +9548,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9445,7 +9587,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9484,7 +9626,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9519,23 +9661,21 @@
         <v>6420799.612576597</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1.341341463414634</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1.034146341463415</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9560,11 +9700,17 @@
         <v>5791403.762711892</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>21</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9593,11 +9739,17 @@
         <v>5672338.733876598</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>21</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9626,11 +9778,17 @@
         <v>4805784.901011892</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>21</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9659,11 +9817,17 @@
         <v>4351293.31566609</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>21</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9692,11 +9856,17 @@
         <v>4197016.76346609</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>21</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9728,8 +9898,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>21</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9761,8 +9937,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>21</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9794,8 +9976,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>21</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9827,8 +10015,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>21</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +10054,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>21</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9890,11 +10090,17 @@
         <v>5925805.728849237</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>21</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9923,11 +10129,17 @@
         <v>5157732.389166007</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>21</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9956,11 +10168,17 @@
         <v>5770199.310866007</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>21</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9989,11 +10207,17 @@
         <v>6682591.873363513</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>21</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10022,11 +10246,17 @@
         <v>8379580.701023223</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>21</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10055,15 +10285,23 @@
         <v>6784187.538344922</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>21</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>1.628333333333333</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1.014354066985646</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10088,7 +10326,7 @@
         <v>5805037.827897863</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10121,7 +10359,7 @@
         <v>4862533.220197862</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10154,7 +10392,7 @@
         <v>3477029.871497862</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10187,7 +10425,7 @@
         <v>2429645.331197862</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10220,7 +10458,7 @@
         <v>1341786.897497862</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10253,7 +10491,7 @@
         <v>315660.0102802521</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10264,6 +10502,6 @@
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2473,11 +2473,9 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>21</v>
       </c>
@@ -2555,11 +2553,9 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>21</v>
       </c>
@@ -2637,11 +2633,9 @@
         <v>159086.2995336448</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>21</v>
       </c>
@@ -2678,11 +2672,9 @@
         <v>222191.8929336448</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>21</v>
       </c>
@@ -10129,7 +10121,7 @@
         <v>5157732.389166007</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
@@ -10137,13 +10129,15 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>1.509285714285714</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1.014354066985646</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10168,17 +10162,11 @@
         <v>5770199.310866007</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>21</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10210,14 +10198,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>21</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10249,14 +10231,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>21</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10285,23 +10261,15 @@
         <v>6784187.538344922</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>21</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
-        <v>1.628333333333333</v>
-      </c>
-      <c r="M252" t="n">
-        <v>1.014354066985646</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10326,7 +10294,7 @@
         <v>5805037.827897863</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10359,7 +10327,7 @@
         <v>4862533.220197862</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10392,7 +10360,7 @@
         <v>3477029.871497862</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10425,7 +10393,7 @@
         <v>2429645.331197862</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10491,7 +10459,7 @@
         <v>315660.0102802521</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10502,6 +10470,6 @@
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest OGO.xlsx
+++ b/BackTest/2019-10-27 BackTest OGO.xlsx
@@ -2309,11 +2309,9 @@
         <v>2538.982833644801</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>21</v>
       </c>
@@ -2350,11 +2348,9 @@
         <v>5576.281733644801</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>21</v>
       </c>
@@ -2391,11 +2387,9 @@
         <v>5592.262933644801</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>21</v>
       </c>
@@ -2432,11 +2426,9 @@
         <v>-2826.737066355199</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>21</v>
       </c>
@@ -2512,11 +2504,9 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>21</v>
       </c>
@@ -2592,11 +2582,9 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>21</v>
       </c>
@@ -10162,7 +10150,7 @@
         <v>5770199.310866007</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10261,7 +10249,7 @@
         <v>6784187.538344922</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10294,7 +10282,7 @@
         <v>5805037.827897863</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10327,7 +10315,7 @@
         <v>4862533.220197862</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10360,7 +10348,7 @@
         <v>3477029.871497862</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10426,7 +10414,7 @@
         <v>1341786.897497862</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10459,7 +10447,7 @@
         <v>315660.0102802521</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
